--- a/documentation/HcssAcctCCT.xlsx
+++ b/documentation/HcssAcctCCT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2021\APC\12- DEC\3 WK 12-17-2021\TIMECARDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2021\APC\12- DEC\4 WK 12-23-2021\TIMECARDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="70">
   <si>
     <t>Status Code</t>
   </si>
@@ -158,7 +158,7 @@
     <t>108001</t>
   </si>
   <si>
-    <t>03</t>
+    <t>02</t>
   </si>
   <si>
     <t>0200201000</t>
@@ -179,10 +179,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>01</t>
+    <t>03</t>
   </si>
   <si>
     <t>0100106000</t>
@@ -200,22 +197,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>108002</t>
-  </si>
-  <si>
-    <t>108013</t>
-  </si>
-  <si>
-    <t>0200203000</t>
+    <t>108003</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>108003</t>
+    <t>108002</t>
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>10</t>
@@ -224,10 +218,22 @@
     <t>108006</t>
   </si>
   <si>
+    <t>0200203000</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>108013</t>
+  </si>
+  <si>
+    <t>108950</t>
+  </si>
+  <si>
+    <t>0100104000</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN126"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T115" workbookViewId="0">
-      <selection activeCell="X126" sqref="X126"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +747,7 @@
         <v>13595</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -792,7 +798,7 @@
         <v>49</v>
       </c>
       <c r="AC2" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD2" t="s">
         <v>42</v>
@@ -801,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH2" s="3">
         <v>0</v>
@@ -836,7 +842,7 @@
         <v>13595</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
@@ -866,7 +872,7 @@
         <v>48</v>
       </c>
       <c r="Q3" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
@@ -887,7 +893,7 @@
         <v>49</v>
       </c>
       <c r="AC3" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD3" t="s">
         <v>42</v>
@@ -896,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH3" s="3">
         <v>0</v>
@@ -931,13 +937,13 @@
         <v>13595</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>45</v>
@@ -982,7 +988,7 @@
         <v>49</v>
       </c>
       <c r="AC4" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD4" t="s">
         <v>42</v>
@@ -991,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH4" s="3">
         <v>0</v>
@@ -1026,13 +1032,13 @@
         <v>13595</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
@@ -1056,7 +1062,7 @@
         <v>48</v>
       </c>
       <c r="Q5" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
@@ -1077,7 +1083,7 @@
         <v>49</v>
       </c>
       <c r="AC5" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD5" t="s">
         <v>42</v>
@@ -1086,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH5" s="3">
         <v>0</v>
@@ -1121,13 +1127,13 @@
         <v>13595</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>45</v>
@@ -1151,7 +1157,7 @@
         <v>48</v>
       </c>
       <c r="Q6" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -1172,7 +1178,7 @@
         <v>49</v>
       </c>
       <c r="AC6" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD6" t="s">
         <v>42</v>
@@ -1181,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH6" s="3">
         <v>0</v>
@@ -1216,16 +1222,16 @@
         <v>13598</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>46</v>
@@ -1240,10 +1246,10 @@
         <v>150</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="3">
         <v>8</v>
@@ -1267,7 +1273,7 @@
         <v>49</v>
       </c>
       <c r="AC7" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD7" t="s">
         <v>42</v>
@@ -1276,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1311,16 +1317,16 @@
         <v>13598</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
@@ -1335,10 +1341,10 @@
         <v>150</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="3">
         <v>8</v>
@@ -1362,7 +1368,7 @@
         <v>49</v>
       </c>
       <c r="AC8" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD8" t="s">
         <v>42</v>
@@ -1371,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
@@ -1406,16 +1412,16 @@
         <v>13598</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
@@ -1430,10 +1436,10 @@
         <v>150</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="3">
         <v>8</v>
@@ -1457,7 +1463,7 @@
         <v>49</v>
       </c>
       <c r="AC9" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD9" t="s">
         <v>42</v>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -1498,19 +1504,19 @@
         <v>42</v>
       </c>
       <c r="F10">
-        <v>13598</v>
+        <v>13658</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
@@ -1522,16 +1528,16 @@
         <v>47</v>
       </c>
       <c r="N10">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1552,7 +1558,7 @@
         <v>49</v>
       </c>
       <c r="AC10" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD10" t="s">
         <v>42</v>
@@ -1561,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -1593,19 +1599,19 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>13598</v>
+        <v>13672</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
@@ -1620,13 +1626,13 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -1647,7 +1653,7 @@
         <v>49</v>
       </c>
       <c r="AC11" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD11" t="s">
         <v>42</v>
@@ -1656,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -1688,16 +1694,16 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>13658</v>
+        <v>13672</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
@@ -1712,16 +1718,16 @@
         <v>47</v>
       </c>
       <c r="N12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1742,7 +1748,7 @@
         <v>49</v>
       </c>
       <c r="AC12" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD12" t="s">
         <v>42</v>
@@ -1751,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="AG12">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH12" s="3">
         <v>0</v>
@@ -1783,16 +1789,16 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>13658</v>
+        <v>13672</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
@@ -1807,16 +1813,16 @@
         <v>47</v>
       </c>
       <c r="N13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
@@ -1837,7 +1843,7 @@
         <v>49</v>
       </c>
       <c r="AC13" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD13" t="s">
         <v>42</v>
@@ -1846,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -1878,16 +1884,16 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>13658</v>
+        <v>13713</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
@@ -1902,16 +1908,16 @@
         <v>47</v>
       </c>
       <c r="N14">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="3">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1932,7 +1938,7 @@
         <v>49</v>
       </c>
       <c r="AC14" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD14" t="s">
         <v>42</v>
@@ -1941,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="AG14">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -1973,16 +1979,16 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>13658</v>
+        <v>13713</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
@@ -1997,16 +2003,16 @@
         <v>47</v>
       </c>
       <c r="N15">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="3">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -2027,7 +2033,7 @@
         <v>49</v>
       </c>
       <c r="AC15" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD15" t="s">
         <v>42</v>
@@ -2036,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -2071,13 +2077,13 @@
         <v>13713</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
@@ -2095,13 +2101,13 @@
         <v>150</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Q16" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R16" s="3">
         <v>0</v>
@@ -2122,7 +2128,7 @@
         <v>49</v>
       </c>
       <c r="AC16" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD16" t="s">
         <v>42</v>
@@ -2131,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -2166,13 +2172,13 @@
         <v>13713</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
@@ -2190,7 +2196,7 @@
         <v>150</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>48</v>
@@ -2217,7 +2223,7 @@
         <v>49</v>
       </c>
       <c r="AC17" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD17" t="s">
         <v>42</v>
@@ -2226,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -2258,16 +2264,16 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>13713</v>
+        <v>13993</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
@@ -2288,10 +2294,10 @@
         <v>3</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -2312,7 +2318,7 @@
         <v>49</v>
       </c>
       <c r="AC18" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD18" t="s">
         <v>42</v>
@@ -2321,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AG18">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2353,16 +2359,16 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>13713</v>
+        <v>13993</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
@@ -2383,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="3">
         <v>8</v>
@@ -2407,7 +2413,7 @@
         <v>49</v>
       </c>
       <c r="AC19" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD19" t="s">
         <v>42</v>
@@ -2416,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH19" s="3">
         <v>0</v>
@@ -2451,16 +2457,16 @@
         <v>13993</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
@@ -2475,10 +2481,10 @@
         <v>150</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="3">
         <v>8</v>
@@ -2502,7 +2508,7 @@
         <v>49</v>
       </c>
       <c r="AC20" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD20" t="s">
         <v>42</v>
@@ -2511,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
@@ -2543,19 +2549,19 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>13993</v>
+        <v>14096</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -2567,13 +2573,13 @@
         <v>47</v>
       </c>
       <c r="N21">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="3">
         <v>8</v>
@@ -2597,7 +2603,7 @@
         <v>49</v>
       </c>
       <c r="AC21" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD21" t="s">
         <v>42</v>
@@ -2606,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH21" s="3">
         <v>0</v>
@@ -2638,19 +2644,19 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>13993</v>
+        <v>14096</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s">
         <v>46</v>
@@ -2662,16 +2668,16 @@
         <v>47</v>
       </c>
       <c r="N22">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -2692,7 +2698,7 @@
         <v>49</v>
       </c>
       <c r="AC22" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD22" t="s">
         <v>42</v>
@@ -2701,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH22" s="3">
         <v>0</v>
@@ -2733,16 +2739,16 @@
         <v>42</v>
       </c>
       <c r="F23">
-        <v>13993</v>
+        <v>14361</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>45</v>
@@ -2757,13 +2763,13 @@
         <v>47</v>
       </c>
       <c r="N23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="3">
         <v>8.5</v>
@@ -2787,7 +2793,7 @@
         <v>49</v>
       </c>
       <c r="AC23" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD23" t="s">
         <v>42</v>
@@ -2796,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="AG23">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH23" s="3">
         <v>0</v>
@@ -2828,19 +2834,19 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>14096</v>
+        <v>14621</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -2852,16 +2858,16 @@
         <v>47</v>
       </c>
       <c r="N24">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2882,7 +2888,7 @@
         <v>49</v>
       </c>
       <c r="AC24" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD24" t="s">
         <v>42</v>
@@ -2891,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH24" s="3">
         <v>0</v>
@@ -2923,19 +2929,19 @@
         <v>42</v>
       </c>
       <c r="F25">
-        <v>14096</v>
+        <v>14621</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>47</v>
+      <c r="I25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -2947,16 +2953,16 @@
         <v>47</v>
       </c>
       <c r="N25">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R25" s="3">
         <v>0</v>
@@ -2977,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="AC25" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD25" t="s">
         <v>42</v>
@@ -2986,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="AG25">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH25" s="3">
         <v>0</v>
@@ -3018,19 +3024,19 @@
         <v>42</v>
       </c>
       <c r="F26">
-        <v>14096</v>
+        <v>14621</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -3042,13 +3048,13 @@
         <v>47</v>
       </c>
       <c r="N26">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="3">
         <v>8</v>
@@ -3072,7 +3078,7 @@
         <v>49</v>
       </c>
       <c r="AC26" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD26" t="s">
         <v>42</v>
@@ -3081,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH26" s="3">
         <v>0</v>
@@ -3113,19 +3119,19 @@
         <v>42</v>
       </c>
       <c r="F27">
-        <v>14096</v>
+        <v>15023</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
         <v>46</v>
@@ -3140,13 +3146,13 @@
         <v>250</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -3167,7 +3173,7 @@
         <v>49</v>
       </c>
       <c r="AC27" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD27" t="s">
         <v>42</v>
@@ -3176,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="AG27">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH27" s="3">
         <v>0</v>
@@ -3208,19 +3214,19 @@
         <v>42</v>
       </c>
       <c r="F28">
-        <v>14096</v>
+        <v>15023</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
         <v>46</v>
@@ -3235,16 +3241,16 @@
         <v>250</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -3262,7 +3268,7 @@
         <v>49</v>
       </c>
       <c r="AC28" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD28" t="s">
         <v>42</v>
@@ -3271,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="AG28">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
@@ -3303,16 +3309,16 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>14361</v>
+        <v>15023</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>45</v>
@@ -3327,16 +3333,16 @@
         <v>47</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="3">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -3357,7 +3363,7 @@
         <v>49</v>
       </c>
       <c r="AC29" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD29" t="s">
         <v>42</v>
@@ -3366,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="AG29">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
@@ -3398,16 +3404,16 @@
         <v>42</v>
       </c>
       <c r="F30">
-        <v>14361</v>
+        <v>15042</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>45</v>
@@ -3422,16 +3428,16 @@
         <v>47</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="3">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="R30" s="3">
         <v>0</v>
@@ -3452,7 +3458,7 @@
         <v>49</v>
       </c>
       <c r="AC30" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD30" t="s">
         <v>42</v>
@@ -3461,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="AG30">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH30" s="3">
         <v>0</v>
@@ -3493,16 +3499,16 @@
         <v>42</v>
       </c>
       <c r="F31">
-        <v>14361</v>
+        <v>15089</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>45</v>
@@ -3517,16 +3523,16 @@
         <v>47</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="3">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="R31" s="3">
         <v>0</v>
@@ -3547,7 +3553,7 @@
         <v>49</v>
       </c>
       <c r="AC31" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD31" t="s">
         <v>42</v>
@@ -3556,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -3588,16 +3594,16 @@
         <v>42</v>
       </c>
       <c r="F32">
-        <v>14361</v>
+        <v>15089</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>45</v>
@@ -3612,19 +3618,19 @@
         <v>47</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="3">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -3642,7 +3648,7 @@
         <v>49</v>
       </c>
       <c r="AC32" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD32" t="s">
         <v>42</v>
@@ -3651,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH32" s="3">
         <v>0</v>
@@ -3683,19 +3689,19 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>14621</v>
+        <v>15089</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
         <v>46</v>
@@ -3710,13 +3716,13 @@
         <v>150</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -3737,7 +3743,7 @@
         <v>49</v>
       </c>
       <c r="AC33" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD33" t="s">
         <v>42</v>
@@ -3746,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="AG33">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -3778,16 +3784,16 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>14621</v>
+        <v>15523</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>45</v>
@@ -3802,16 +3808,16 @@
         <v>47</v>
       </c>
       <c r="N34">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O34">
         <v>3</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R34" s="3">
         <v>0</v>
@@ -3832,7 +3838,7 @@
         <v>49</v>
       </c>
       <c r="AC34" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD34" t="s">
         <v>42</v>
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="AG34">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -3873,16 +3879,16 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>14621</v>
+        <v>15523</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>45</v>
@@ -3897,16 +3903,16 @@
         <v>47</v>
       </c>
       <c r="N35">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q35" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -3927,7 +3933,7 @@
         <v>49</v>
       </c>
       <c r="AC35" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD35" t="s">
         <v>42</v>
@@ -3936,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -3968,16 +3974,16 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>15023</v>
+        <v>15523</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>45</v>
@@ -3992,16 +3998,16 @@
         <v>47</v>
       </c>
       <c r="N36">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -4022,7 +4028,7 @@
         <v>49</v>
       </c>
       <c r="AC36" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD36" t="s">
         <v>42</v>
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="AG36">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -4063,16 +4069,16 @@
         <v>42</v>
       </c>
       <c r="F37">
-        <v>15023</v>
+        <v>15973</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>45</v>
@@ -4087,16 +4093,16 @@
         <v>47</v>
       </c>
       <c r="N37">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="3">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="R37" s="3">
         <v>0</v>
@@ -4117,7 +4123,7 @@
         <v>49</v>
       </c>
       <c r="AC37" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD37" t="s">
         <v>42</v>
@@ -4126,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -4158,16 +4164,16 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <v>15023</v>
+        <v>15973</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>45</v>
@@ -4182,16 +4188,16 @@
         <v>47</v>
       </c>
       <c r="N38">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -4212,7 +4218,7 @@
         <v>49</v>
       </c>
       <c r="AC38" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD38" t="s">
         <v>42</v>
@@ -4221,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="AG38">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -4253,16 +4259,16 @@
         <v>42</v>
       </c>
       <c r="F39">
-        <v>15042</v>
+        <v>15973</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>45</v>
@@ -4277,16 +4283,16 @@
         <v>47</v>
       </c>
       <c r="N39">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="R39" s="3">
         <v>0</v>
@@ -4307,7 +4313,7 @@
         <v>49</v>
       </c>
       <c r="AC39" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD39" t="s">
         <v>42</v>
@@ -4316,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -4348,16 +4354,16 @@
         <v>42</v>
       </c>
       <c r="F40">
-        <v>15042</v>
+        <v>15974</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>45</v>
@@ -4372,16 +4378,16 @@
         <v>47</v>
       </c>
       <c r="N40">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O40">
         <v>2</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -4402,7 +4408,7 @@
         <v>49</v>
       </c>
       <c r="AC40" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD40" t="s">
         <v>42</v>
@@ -4411,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="AG40">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -4443,16 +4449,16 @@
         <v>42</v>
       </c>
       <c r="F41">
-        <v>15042</v>
+        <v>15974</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>45</v>
@@ -4467,16 +4473,16 @@
         <v>47</v>
       </c>
       <c r="N41">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O41">
         <v>3</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="3">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -4497,7 +4503,7 @@
         <v>49</v>
       </c>
       <c r="AC41" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD41" t="s">
         <v>42</v>
@@ -4506,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="AG41">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -4538,16 +4544,16 @@
         <v>42</v>
       </c>
       <c r="F42">
-        <v>15042</v>
+        <v>15974</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>45</v>
@@ -4562,16 +4568,16 @@
         <v>47</v>
       </c>
       <c r="N42">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q42" s="3">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -4592,7 +4598,7 @@
         <v>49</v>
       </c>
       <c r="AC42" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD42" t="s">
         <v>42</v>
@@ -4601,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="AG42">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH42" s="3">
         <v>0</v>
@@ -4633,16 +4639,16 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <v>15089</v>
+        <v>15974</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>45</v>
@@ -4657,16 +4663,16 @@
         <v>47</v>
       </c>
       <c r="N43">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q43" s="3">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -4687,7 +4693,7 @@
         <v>49</v>
       </c>
       <c r="AC43" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD43" t="s">
         <v>42</v>
@@ -4696,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="AG43">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -4728,16 +4734,16 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>15089</v>
+        <v>16150</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>45</v>
@@ -4755,13 +4761,13 @@
         <v>150</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Q44" s="3">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -4782,7 +4788,7 @@
         <v>49</v>
       </c>
       <c r="AC44" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD44" t="s">
         <v>42</v>
@@ -4791,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="AG44">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -4823,19 +4829,19 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <v>15089</v>
+        <v>16227</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>47</v>
+      <c r="I45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
@@ -4847,13 +4853,13 @@
         <v>47</v>
       </c>
       <c r="N45">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="3">
         <v>8</v>
@@ -4877,7 +4883,7 @@
         <v>49</v>
       </c>
       <c r="AC45" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD45" t="s">
         <v>42</v>
@@ -4886,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="AG45">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -4918,16 +4924,16 @@
         <v>42</v>
       </c>
       <c r="F46">
-        <v>15523</v>
+        <v>16227</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>45</v>
@@ -4945,13 +4951,13 @@
         <v>200</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q46" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -4972,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="AC46" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD46" t="s">
         <v>42</v>
@@ -4981,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="AG46">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -5013,13 +5019,13 @@
         <v>42</v>
       </c>
       <c r="F47">
-        <v>15523</v>
+        <v>16422</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>44</v>
@@ -5037,16 +5043,16 @@
         <v>47</v>
       </c>
       <c r="N47">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q47" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -5067,7 +5073,7 @@
         <v>49</v>
       </c>
       <c r="AC47" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD47" t="s">
         <v>42</v>
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="AG47">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -5108,13 +5114,13 @@
         <v>42</v>
       </c>
       <c r="F48">
-        <v>15523</v>
+        <v>16422</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>44</v>
@@ -5132,13 +5138,13 @@
         <v>47</v>
       </c>
       <c r="N48">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q48" s="3">
         <v>8</v>
@@ -5162,7 +5168,7 @@
         <v>49</v>
       </c>
       <c r="AC48" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD48" t="s">
         <v>42</v>
@@ -5171,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="AG48">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH48" s="3">
         <v>0</v>
@@ -5203,16 +5209,16 @@
         <v>42</v>
       </c>
       <c r="F49">
-        <v>15523</v>
+        <v>16583</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>45</v>
@@ -5227,16 +5233,16 @@
         <v>47</v>
       </c>
       <c r="N49">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49">
         <v>5</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q49" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -5257,7 +5263,7 @@
         <v>49</v>
       </c>
       <c r="AC49" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD49" t="s">
         <v>42</v>
@@ -5266,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH49" s="3">
         <v>0</v>
@@ -5298,19 +5304,19 @@
         <v>42</v>
       </c>
       <c r="F50">
-        <v>15585</v>
+        <v>16970</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
@@ -5322,16 +5328,16 @@
         <v>47</v>
       </c>
       <c r="N50">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q50" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R50" s="3">
         <v>0</v>
@@ -5352,7 +5358,7 @@
         <v>49</v>
       </c>
       <c r="AC50" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD50" t="s">
         <v>42</v>
@@ -5361,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="AG50">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -5393,19 +5399,19 @@
         <v>42</v>
       </c>
       <c r="F51">
-        <v>15585</v>
+        <v>16970</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s">
         <v>46</v>
@@ -5417,16 +5423,16 @@
         <v>47</v>
       </c>
       <c r="N51">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O51">
         <v>2</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R51" s="3">
         <v>0</v>
@@ -5447,7 +5453,7 @@
         <v>49</v>
       </c>
       <c r="AC51" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD51" t="s">
         <v>42</v>
@@ -5456,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="AG51">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -5488,19 +5494,19 @@
         <v>42</v>
       </c>
       <c r="F52">
-        <v>15585</v>
+        <v>16970</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s">
         <v>46</v>
@@ -5512,16 +5518,16 @@
         <v>47</v>
       </c>
       <c r="N52">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O52">
         <v>3</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q52" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -5542,7 +5548,7 @@
         <v>49</v>
       </c>
       <c r="AC52" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD52" t="s">
         <v>42</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AG52">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -5583,19 +5589,19 @@
         <v>42</v>
       </c>
       <c r="F53">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s">
         <v>46</v>
@@ -5607,16 +5613,16 @@
         <v>47</v>
       </c>
       <c r="N53">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R53" s="3">
         <v>0</v>
@@ -5637,7 +5643,7 @@
         <v>49</v>
       </c>
       <c r="AC53" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD53" t="s">
         <v>42</v>
@@ -5646,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="AG53">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -5678,19 +5684,19 @@
         <v>42</v>
       </c>
       <c r="F54">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -5702,16 +5708,16 @@
         <v>47</v>
       </c>
       <c r="N54">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q54" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -5732,7 +5738,7 @@
         <v>49</v>
       </c>
       <c r="AC54" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD54" t="s">
         <v>42</v>
@@ -5741,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="AG54">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH54" s="3">
         <v>0</v>
@@ -5773,19 +5779,19 @@
         <v>42</v>
       </c>
       <c r="F55">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
@@ -5797,16 +5803,16 @@
         <v>47</v>
       </c>
       <c r="N55">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q55" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R55" s="3">
         <v>0</v>
@@ -5827,7 +5833,7 @@
         <v>49</v>
       </c>
       <c r="AC55" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD55" t="s">
         <v>42</v>
@@ -5836,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="AG55">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH55" s="3">
         <v>0</v>
@@ -5868,19 +5874,19 @@
         <v>42</v>
       </c>
       <c r="F56">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -5892,16 +5898,16 @@
         <v>47</v>
       </c>
       <c r="N56">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O56">
         <v>5</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q56" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R56" s="3">
         <v>0</v>
@@ -5922,7 +5928,7 @@
         <v>49</v>
       </c>
       <c r="AC56" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD56" t="s">
         <v>42</v>
@@ -5931,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="AG56">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH56" s="3">
         <v>0</v>
@@ -5963,19 +5969,19 @@
         <v>42</v>
       </c>
       <c r="F57">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s">
         <v>46</v>
@@ -5987,16 +5993,16 @@
         <v>47</v>
       </c>
       <c r="N57">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O57">
         <v>5</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q57" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -6017,7 +6023,7 @@
         <v>49</v>
       </c>
       <c r="AC57" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD57" t="s">
         <v>42</v>
@@ -6026,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="AG57">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH57" s="3">
         <v>0</v>
@@ -6058,16 +6064,16 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>15974</v>
+        <v>17029</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>45</v>
@@ -6082,16 +6088,16 @@
         <v>47</v>
       </c>
       <c r="N58">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -6112,7 +6118,7 @@
         <v>49</v>
       </c>
       <c r="AC58" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD58" t="s">
         <v>42</v>
@@ -6121,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="AG58">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH58" s="3">
         <v>0</v>
@@ -6153,19 +6159,19 @@
         <v>42</v>
       </c>
       <c r="F59">
-        <v>15974</v>
+        <v>17029</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K59" t="s">
         <v>46</v>
@@ -6177,13 +6183,13 @@
         <v>47</v>
       </c>
       <c r="N59">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q59" s="3">
         <v>8</v>
@@ -6207,7 +6213,7 @@
         <v>49</v>
       </c>
       <c r="AC59" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD59" t="s">
         <v>42</v>
@@ -6216,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="AG59">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH59" s="3">
         <v>0</v>
@@ -6248,16 +6254,16 @@
         <v>42</v>
       </c>
       <c r="F60">
-        <v>15974</v>
+        <v>17159</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>45</v>
@@ -6272,16 +6278,16 @@
         <v>47</v>
       </c>
       <c r="N60">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q60" s="3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -6302,7 +6308,7 @@
         <v>49</v>
       </c>
       <c r="AC60" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
@@ -6311,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="AG60">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH60" s="3">
         <v>0</v>
@@ -6343,16 +6349,16 @@
         <v>42</v>
       </c>
       <c r="F61">
-        <v>15974</v>
+        <v>17159</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>45</v>
@@ -6367,16 +6373,16 @@
         <v>47</v>
       </c>
       <c r="N61">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q61" s="3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -6397,7 +6403,7 @@
         <v>49</v>
       </c>
       <c r="AC61" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD61" t="s">
         <v>42</v>
@@ -6406,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="AG61">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH61" s="3">
         <v>0</v>
@@ -6438,16 +6444,16 @@
         <v>42</v>
       </c>
       <c r="F62">
-        <v>16227</v>
+        <v>17159</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>45</v>
@@ -6462,13 +6468,13 @@
         <v>47</v>
       </c>
       <c r="N62">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q62" s="3">
         <v>8</v>
@@ -6492,7 +6498,7 @@
         <v>49</v>
       </c>
       <c r="AC62" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD62" t="s">
         <v>42</v>
@@ -6501,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="AG62">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH62" s="3">
         <v>0</v>
@@ -6533,19 +6539,19 @@
         <v>42</v>
       </c>
       <c r="F63">
-        <v>16227</v>
+        <v>17159</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -6557,13 +6563,13 @@
         <v>47</v>
       </c>
       <c r="N63">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q63" s="3">
         <v>8</v>
@@ -6587,7 +6593,7 @@
         <v>49</v>
       </c>
       <c r="AC63" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD63" t="s">
         <v>42</v>
@@ -6596,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH63" s="3">
         <v>0</v>
@@ -6628,19 +6634,19 @@
         <v>42</v>
       </c>
       <c r="F64">
-        <v>16227</v>
+        <v>17163</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s">
         <v>46</v>
@@ -6652,13 +6658,13 @@
         <v>47</v>
       </c>
       <c r="N64">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q64" s="3">
         <v>8</v>
@@ -6682,7 +6688,7 @@
         <v>49</v>
       </c>
       <c r="AC64" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD64" t="s">
         <v>42</v>
@@ -6691,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="AG64">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH64" s="3">
         <v>0</v>
@@ -6723,19 +6729,19 @@
         <v>42</v>
       </c>
       <c r="F65">
-        <v>16227</v>
+        <v>17461</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K65" t="s">
         <v>46</v>
@@ -6747,13 +6753,13 @@
         <v>47</v>
       </c>
       <c r="N65">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O65">
         <v>5</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q65" s="3">
         <v>8</v>
@@ -6777,7 +6783,7 @@
         <v>49</v>
       </c>
       <c r="AC65" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD65" t="s">
         <v>42</v>
@@ -6786,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="AG65">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH65" s="3">
         <v>0</v>
@@ -6818,19 +6824,19 @@
         <v>42</v>
       </c>
       <c r="F66">
-        <v>16422</v>
+        <v>17475</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
@@ -6842,16 +6848,16 @@
         <v>47</v>
       </c>
       <c r="N66">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Q66" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -6872,7 +6878,7 @@
         <v>49</v>
       </c>
       <c r="AC66" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD66" t="s">
         <v>42</v>
@@ -6881,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="AG66">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH66" s="3">
         <v>0</v>
@@ -6913,19 +6919,19 @@
         <v>42</v>
       </c>
       <c r="F67">
-        <v>16422</v>
+        <v>17546</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K67" t="s">
         <v>46</v>
@@ -6937,13 +6943,13 @@
         <v>47</v>
       </c>
       <c r="N67">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q67" s="3">
         <v>8</v>
@@ -6967,7 +6973,7 @@
         <v>49</v>
       </c>
       <c r="AC67" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD67" t="s">
         <v>42</v>
@@ -6976,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="AG67">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH67" s="3">
         <v>0</v>
@@ -7008,19 +7014,19 @@
         <v>42</v>
       </c>
       <c r="F68">
-        <v>16422</v>
+        <v>17546</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K68" t="s">
         <v>46</v>
@@ -7032,16 +7038,16 @@
         <v>47</v>
       </c>
       <c r="N68">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O68">
         <v>3</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q68" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R68" s="3">
         <v>0</v>
@@ -7062,7 +7068,7 @@
         <v>49</v>
       </c>
       <c r="AC68" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD68" t="s">
         <v>42</v>
@@ -7071,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="AG68">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH68" s="3">
         <v>0</v>
@@ -7103,19 +7109,19 @@
         <v>42</v>
       </c>
       <c r="F69">
-        <v>16422</v>
+        <v>17546</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K69" t="s">
         <v>46</v>
@@ -7127,16 +7133,16 @@
         <v>47</v>
       </c>
       <c r="N69">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O69">
         <v>5</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q69" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R69" s="3">
         <v>0</v>
@@ -7157,7 +7163,7 @@
         <v>49</v>
       </c>
       <c r="AC69" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD69" t="s">
         <v>42</v>
@@ -7166,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="AG69">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH69" s="3">
         <v>0</v>
@@ -7198,19 +7204,19 @@
         <v>42</v>
       </c>
       <c r="F70">
-        <v>16970</v>
+        <v>17639</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s">
         <v>46</v>
@@ -7225,13 +7231,13 @@
         <v>150</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q70" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -7252,7 +7258,7 @@
         <v>49</v>
       </c>
       <c r="AC70" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD70" t="s">
         <v>42</v>
@@ -7261,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="AG70">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH70" s="3">
         <v>0</v>
@@ -7293,19 +7299,19 @@
         <v>42</v>
       </c>
       <c r="F71">
-        <v>16970</v>
+        <v>17639</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
         <v>46</v>
@@ -7320,13 +7326,13 @@
         <v>150</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q71" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R71" s="3">
         <v>0</v>
@@ -7347,7 +7353,7 @@
         <v>49</v>
       </c>
       <c r="AC71" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD71" t="s">
         <v>42</v>
@@ -7356,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="AG71">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH71" s="3">
         <v>0</v>
@@ -7388,19 +7394,19 @@
         <v>42</v>
       </c>
       <c r="F72">
-        <v>16970</v>
+        <v>17639</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K72" t="s">
         <v>46</v>
@@ -7415,16 +7421,16 @@
         <v>150</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q72" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R72" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -7442,7 +7448,7 @@
         <v>49</v>
       </c>
       <c r="AC72" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD72" t="s">
         <v>42</v>
@@ -7451,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="AG72">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH72" s="3">
         <v>0</v>
@@ -7483,19 +7489,19 @@
         <v>42</v>
       </c>
       <c r="F73">
-        <v>16970</v>
+        <v>17639</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K73" t="s">
         <v>46</v>
@@ -7510,13 +7516,13 @@
         <v>150</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q73" s="3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="R73" s="3">
         <v>0</v>
@@ -7537,7 +7543,7 @@
         <v>49</v>
       </c>
       <c r="AC73" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD73" t="s">
         <v>42</v>
@@ -7546,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="AG73">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH73" s="3">
         <v>0</v>
@@ -7578,19 +7584,19 @@
         <v>42</v>
       </c>
       <c r="F74">
-        <v>16970</v>
+        <v>17656</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s">
         <v>46</v>
@@ -7602,16 +7608,16 @@
         <v>47</v>
       </c>
       <c r="N74">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O74">
         <v>3</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q74" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R74" s="3">
         <v>0</v>
@@ -7632,7 +7638,7 @@
         <v>49</v>
       </c>
       <c r="AC74" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD74" t="s">
         <v>42</v>
@@ -7641,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="AG74">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH74" s="3">
         <v>0</v>
@@ -7673,19 +7679,19 @@
         <v>42</v>
       </c>
       <c r="F75">
-        <v>16970</v>
+        <v>17677</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75" t="s">
         <v>46</v>
@@ -7700,13 +7706,13 @@
         <v>150</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q75" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R75" s="3">
         <v>0</v>
@@ -7727,7 +7733,7 @@
         <v>49</v>
       </c>
       <c r="AC75" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD75" t="s">
         <v>42</v>
@@ -7736,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="AG75">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH75" s="3">
         <v>0</v>
@@ -7768,19 +7774,19 @@
         <v>42</v>
       </c>
       <c r="F76">
-        <v>16970</v>
+        <v>17677</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K76" t="s">
         <v>46</v>
@@ -7795,13 +7801,13 @@
         <v>150</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q76" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -7822,7 +7828,7 @@
         <v>49</v>
       </c>
       <c r="AC76" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD76" t="s">
         <v>42</v>
@@ -7831,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="AG76">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH76" s="3">
         <v>0</v>
@@ -7863,19 +7869,19 @@
         <v>42</v>
       </c>
       <c r="F77">
-        <v>16970</v>
+        <v>17677</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K77" t="s">
         <v>46</v>
@@ -7890,13 +7896,13 @@
         <v>150</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q77" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R77" s="3">
         <v>0</v>
@@ -7917,7 +7923,7 @@
         <v>49</v>
       </c>
       <c r="AC77" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD77" t="s">
         <v>42</v>
@@ -7926,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AG77">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH77" s="3">
         <v>0</v>
@@ -7958,19 +7964,19 @@
         <v>42</v>
       </c>
       <c r="F78">
-        <v>16970</v>
+        <v>17750</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
         <v>46</v>
@@ -7985,13 +7991,13 @@
         <v>150</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q78" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R78" s="3">
         <v>0</v>
@@ -8012,7 +8018,7 @@
         <v>49</v>
       </c>
       <c r="AC78" s="4">
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AD78" t="s">
         <v>42</v>
@@ -8021,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="AG78">
-        <v>30899</v>
+        <v>40899</v>
       </c>
       <c r="AH78" s="3">
         <v>0</v>
@@ -8033,4566 +8039,6 @@
         <v>0</v>
       </c>
       <c r="AK78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79">
-        <v>16970</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K79" t="s">
-        <v>46</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N79">
-        <v>150</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>4</v>
-      </c>
-      <c r="R79" s="3">
-        <v>0</v>
-      </c>
-      <c r="S79" s="3">
-        <v>0</v>
-      </c>
-      <c r="U79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>81</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC79" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE79">
-        <v>1</v>
-      </c>
-      <c r="AG79">
-        <v>30899</v>
-      </c>
-      <c r="AH79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80">
-        <v>17029</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K80" t="s">
-        <v>46</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N80">
-        <v>150</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>8</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0</v>
-      </c>
-      <c r="S80" s="3">
-        <v>0</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>81</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC80" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE80">
-        <v>1</v>
-      </c>
-      <c r="AG80">
-        <v>30899</v>
-      </c>
-      <c r="AH80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81">
-        <v>17029</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K81" t="s">
-        <v>46</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N81">
-        <v>150</v>
-      </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>8</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>81</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC81" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE81">
-        <v>1</v>
-      </c>
-      <c r="AG81">
-        <v>30899</v>
-      </c>
-      <c r="AH81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82">
-        <v>17029</v>
-      </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K82" t="s">
-        <v>46</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N82">
-        <v>150</v>
-      </c>
-      <c r="O82">
-        <v>4</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>7</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3">
-        <v>0</v>
-      </c>
-      <c r="U82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>81</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC82" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE82">
-        <v>1</v>
-      </c>
-      <c r="AG82">
-        <v>30899</v>
-      </c>
-      <c r="AH82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83">
-        <v>17159</v>
-      </c>
-      <c r="G83">
-        <v>3</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K83" t="s">
-        <v>46</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N83">
-        <v>150</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>8</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>81</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC83" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE83">
-        <v>1</v>
-      </c>
-      <c r="AG83">
-        <v>30899</v>
-      </c>
-      <c r="AH83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84">
-        <v>17159</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K84" t="s">
-        <v>46</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N84">
-        <v>150</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0</v>
-      </c>
-      <c r="U84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>81</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC84" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE84">
-        <v>1</v>
-      </c>
-      <c r="AG84">
-        <v>30899</v>
-      </c>
-      <c r="AH84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F85">
-        <v>17159</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N85">
-        <v>150</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="R85" s="3">
-        <v>0</v>
-      </c>
-      <c r="S85" s="3">
-        <v>0</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>81</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC85" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE85">
-        <v>1</v>
-      </c>
-      <c r="AG85">
-        <v>30899</v>
-      </c>
-      <c r="AH85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86">
-        <v>17159</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K86" t="s">
-        <v>46</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N86">
-        <v>150</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>7</v>
-      </c>
-      <c r="R86" s="3">
-        <v>0</v>
-      </c>
-      <c r="S86" s="3">
-        <v>0</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>81</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC86" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE86">
-        <v>1</v>
-      </c>
-      <c r="AG86">
-        <v>30899</v>
-      </c>
-      <c r="AH86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87">
-        <v>17159</v>
-      </c>
-      <c r="G87">
-        <v>3</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K87" t="s">
-        <v>46</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N87">
-        <v>150</v>
-      </c>
-      <c r="O87">
-        <v>5</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="R87" s="3">
-        <v>0</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="Y87">
-        <v>81</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC87" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE87">
-        <v>1</v>
-      </c>
-      <c r="AG87">
-        <v>30899</v>
-      </c>
-      <c r="AH87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88">
-        <v>17163</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K88" t="s">
-        <v>46</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N88">
-        <v>100</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>8</v>
-      </c>
-      <c r="R88" s="3">
-        <v>0</v>
-      </c>
-      <c r="S88" s="3">
-        <v>0</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="Y88">
-        <v>81</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC88" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE88">
-        <v>1</v>
-      </c>
-      <c r="AG88">
-        <v>30899</v>
-      </c>
-      <c r="AH88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89">
-        <v>17163</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K89" t="s">
-        <v>46</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N89">
-        <v>100</v>
-      </c>
-      <c r="O89">
-        <v>2</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>8</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <v>81</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC89" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-      <c r="AG89">
-        <v>30899</v>
-      </c>
-      <c r="AH89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F90">
-        <v>17413</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90" t="s">
-        <v>46</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N90">
-        <v>150</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>8</v>
-      </c>
-      <c r="R90" s="3">
-        <v>0</v>
-      </c>
-      <c r="S90" s="3">
-        <v>0</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <v>81</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC90" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE90">
-        <v>1</v>
-      </c>
-      <c r="AG90">
-        <v>30899</v>
-      </c>
-      <c r="AH90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91">
-        <v>17413</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K91" t="s">
-        <v>46</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N91">
-        <v>150</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="Y91">
-        <v>81</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC91" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE91">
-        <v>1</v>
-      </c>
-      <c r="AG91">
-        <v>30899</v>
-      </c>
-      <c r="AH91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92">
-        <v>17413</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K92" t="s">
-        <v>46</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N92">
-        <v>150</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q92" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="R92" s="3">
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
-        <v>0</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>81</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC92" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE92">
-        <v>1</v>
-      </c>
-      <c r="AG92">
-        <v>30899</v>
-      </c>
-      <c r="AH92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" t="s">
-        <v>42</v>
-      </c>
-      <c r="F93">
-        <v>17413</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K93" t="s">
-        <v>46</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N93">
-        <v>150</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q93" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="R93" s="3">
-        <v>0</v>
-      </c>
-      <c r="S93" s="3">
-        <v>0</v>
-      </c>
-      <c r="U93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>81</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC93" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE93">
-        <v>1</v>
-      </c>
-      <c r="AG93">
-        <v>30899</v>
-      </c>
-      <c r="AH93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK93" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94">
-        <v>17413</v>
-      </c>
-      <c r="G94">
-        <v>3</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K94" t="s">
-        <v>46</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N94">
-        <v>150</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
-      <c r="Y94">
-        <v>81</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC94" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE94">
-        <v>1</v>
-      </c>
-      <c r="AG94">
-        <v>30899</v>
-      </c>
-      <c r="AH94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95">
-        <v>17413</v>
-      </c>
-      <c r="G95">
-        <v>3</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K95" t="s">
-        <v>46</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N95">
-        <v>150</v>
-      </c>
-      <c r="O95">
-        <v>5</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q95" s="3">
-        <v>11.75</v>
-      </c>
-      <c r="R95" s="3">
-        <v>0</v>
-      </c>
-      <c r="S95" s="3">
-        <v>0</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
-      <c r="Y95">
-        <v>81</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC95" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE95">
-        <v>1</v>
-      </c>
-      <c r="AG95">
-        <v>30899</v>
-      </c>
-      <c r="AH95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" t="s">
-        <v>42</v>
-      </c>
-      <c r="F96">
-        <v>17461</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K96" t="s">
-        <v>46</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N96">
-        <v>150</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>8</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
-      <c r="Y96">
-        <v>81</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC96" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE96">
-        <v>1</v>
-      </c>
-      <c r="AG96">
-        <v>30899</v>
-      </c>
-      <c r="AH96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" t="s">
-        <v>42</v>
-      </c>
-      <c r="F97">
-        <v>17461</v>
-      </c>
-      <c r="G97">
-        <v>3</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K97" t="s">
-        <v>46</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N97">
-        <v>150</v>
-      </c>
-      <c r="O97">
-        <v>2</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q97" s="3">
-        <v>8</v>
-      </c>
-      <c r="R97" s="3">
-        <v>0</v>
-      </c>
-      <c r="S97" s="3">
-        <v>0</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
-      <c r="Y97">
-        <v>81</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC97" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD97" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE97">
-        <v>1</v>
-      </c>
-      <c r="AG97">
-        <v>30899</v>
-      </c>
-      <c r="AH97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98">
-        <v>17475</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K98" t="s">
-        <v>46</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N98">
-        <v>150</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q98" s="3">
-        <v>8</v>
-      </c>
-      <c r="R98" s="3">
-        <v>0</v>
-      </c>
-      <c r="S98" s="3">
-        <v>0</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>81</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC98" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE98">
-        <v>1</v>
-      </c>
-      <c r="AG98">
-        <v>30899</v>
-      </c>
-      <c r="AH98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99">
-        <v>17475</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K99" t="s">
-        <v>46</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N99">
-        <v>150</v>
-      </c>
-      <c r="O99">
-        <v>2</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>8</v>
-      </c>
-      <c r="R99" s="3">
-        <v>0</v>
-      </c>
-      <c r="S99" s="3">
-        <v>0</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>81</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC99" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE99">
-        <v>1</v>
-      </c>
-      <c r="AG99">
-        <v>30899</v>
-      </c>
-      <c r="AH99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" t="s">
-        <v>42</v>
-      </c>
-      <c r="F100">
-        <v>17475</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K100" t="s">
-        <v>46</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N100">
-        <v>150</v>
-      </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>8</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>81</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC100" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE100">
-        <v>1</v>
-      </c>
-      <c r="AG100">
-        <v>30899</v>
-      </c>
-      <c r="AH100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101">
-        <v>17481</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K101" t="s">
-        <v>46</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N101">
-        <v>150</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V101">
-        <v>0</v>
-      </c>
-      <c r="Y101">
-        <v>81</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC101" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE101">
-        <v>1</v>
-      </c>
-      <c r="AG101">
-        <v>30899</v>
-      </c>
-      <c r="AH101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102">
-        <v>17481</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K102" t="s">
-        <v>46</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N102">
-        <v>150</v>
-      </c>
-      <c r="O102">
-        <v>2</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>6</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
-      <c r="Y102">
-        <v>81</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC102" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE102">
-        <v>1</v>
-      </c>
-      <c r="AG102">
-        <v>30899</v>
-      </c>
-      <c r="AH102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103">
-        <v>17481</v>
-      </c>
-      <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K103" t="s">
-        <v>46</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N103">
-        <v>150</v>
-      </c>
-      <c r="O103">
-        <v>2</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q103" s="3">
-        <v>2</v>
-      </c>
-      <c r="R103" s="3">
-        <v>0</v>
-      </c>
-      <c r="S103" s="3">
-        <v>0</v>
-      </c>
-      <c r="U103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
-      <c r="Y103">
-        <v>81</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC103" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE103">
-        <v>1</v>
-      </c>
-      <c r="AG103">
-        <v>30899</v>
-      </c>
-      <c r="AH103" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>42</v>
-      </c>
-      <c r="F104">
-        <v>17481</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K104" t="s">
-        <v>46</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N104">
-        <v>150</v>
-      </c>
-      <c r="O104">
-        <v>3</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q104" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="R104" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S104" s="3">
-        <v>0</v>
-      </c>
-      <c r="U104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
-      <c r="Y104">
-        <v>81</v>
-      </c>
-      <c r="Z104" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC104" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE104">
-        <v>1</v>
-      </c>
-      <c r="AG104">
-        <v>30899</v>
-      </c>
-      <c r="AH104" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105">
-        <v>17481</v>
-      </c>
-      <c r="G105">
-        <v>3</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K105" t="s">
-        <v>46</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N105">
-        <v>150</v>
-      </c>
-      <c r="O105">
-        <v>3</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="R105" s="3">
-        <v>0</v>
-      </c>
-      <c r="S105" s="3">
-        <v>0</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="Y105">
-        <v>81</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC105" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE105">
-        <v>1</v>
-      </c>
-      <c r="AG105">
-        <v>30899</v>
-      </c>
-      <c r="AH105" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ105" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" t="s">
-        <v>42</v>
-      </c>
-      <c r="F106">
-        <v>17481</v>
-      </c>
-      <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K106" t="s">
-        <v>46</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N106">
-        <v>150</v>
-      </c>
-      <c r="O106">
-        <v>4</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q106" s="3">
-        <v>8</v>
-      </c>
-      <c r="R106" s="3">
-        <v>0</v>
-      </c>
-      <c r="S106" s="3">
-        <v>0</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="Y106">
-        <v>81</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC106" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD106" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE106">
-        <v>1</v>
-      </c>
-      <c r="AG106">
-        <v>30899</v>
-      </c>
-      <c r="AH106" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ106" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" t="s">
-        <v>42</v>
-      </c>
-      <c r="F107">
-        <v>17481</v>
-      </c>
-      <c r="G107">
-        <v>3</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K107" t="s">
-        <v>46</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N107">
-        <v>150</v>
-      </c>
-      <c r="O107">
-        <v>5</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q107" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="R107" s="3">
-        <v>0</v>
-      </c>
-      <c r="S107" s="3">
-        <v>0</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
-      <c r="Y107">
-        <v>81</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC107" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD107" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE107">
-        <v>1</v>
-      </c>
-      <c r="AG107">
-        <v>30899</v>
-      </c>
-      <c r="AH107" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI107" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ107" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>41</v>
-      </c>
-      <c r="E108" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108">
-        <v>17489</v>
-      </c>
-      <c r="G108">
-        <v>3</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K108" t="s">
-        <v>46</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N108">
-        <v>150</v>
-      </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>8</v>
-      </c>
-      <c r="R108" s="3">
-        <v>0</v>
-      </c>
-      <c r="S108" s="3">
-        <v>0</v>
-      </c>
-      <c r="U108" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="Y108">
-        <v>81</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC108" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE108">
-        <v>1</v>
-      </c>
-      <c r="AG108">
-        <v>30899</v>
-      </c>
-      <c r="AH108" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI108" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109">
-        <v>17489</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K109" t="s">
-        <v>46</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N109">
-        <v>150</v>
-      </c>
-      <c r="O109">
-        <v>2</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>8</v>
-      </c>
-      <c r="R109" s="3">
-        <v>0</v>
-      </c>
-      <c r="S109" s="3">
-        <v>0</v>
-      </c>
-      <c r="U109" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>81</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC109" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE109">
-        <v>1</v>
-      </c>
-      <c r="AG109">
-        <v>30899</v>
-      </c>
-      <c r="AH109" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI109" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ109" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110">
-        <v>17489</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K110" t="s">
-        <v>46</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N110">
-        <v>150</v>
-      </c>
-      <c r="O110">
-        <v>3</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q110" s="3">
-        <v>9</v>
-      </c>
-      <c r="R110" s="3">
-        <v>0</v>
-      </c>
-      <c r="S110" s="3">
-        <v>0</v>
-      </c>
-      <c r="U110" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>81</v>
-      </c>
-      <c r="Z110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC110" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE110">
-        <v>1</v>
-      </c>
-      <c r="AG110">
-        <v>30899</v>
-      </c>
-      <c r="AH110" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI110" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ110" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111">
-        <v>17489</v>
-      </c>
-      <c r="G111">
-        <v>3</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K111" t="s">
-        <v>46</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N111">
-        <v>150</v>
-      </c>
-      <c r="O111">
-        <v>5</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="R111" s="3">
-        <v>0</v>
-      </c>
-      <c r="S111" s="3">
-        <v>0</v>
-      </c>
-      <c r="U111" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="Y111">
-        <v>81</v>
-      </c>
-      <c r="Z111" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC111" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD111" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE111">
-        <v>1</v>
-      </c>
-      <c r="AG111">
-        <v>30899</v>
-      </c>
-      <c r="AH111" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI111" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ111" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" t="s">
-        <v>42</v>
-      </c>
-      <c r="F112">
-        <v>17546</v>
-      </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K112" t="s">
-        <v>46</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N112">
-        <v>150</v>
-      </c>
-      <c r="O112">
-        <v>1</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>8</v>
-      </c>
-      <c r="R112" s="3">
-        <v>0</v>
-      </c>
-      <c r="S112" s="3">
-        <v>0</v>
-      </c>
-      <c r="U112" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>81</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC112" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD112" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-      <c r="AG112">
-        <v>30899</v>
-      </c>
-      <c r="AH112" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI112" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ112" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113">
-        <v>17546</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K113" t="s">
-        <v>46</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N113">
-        <v>150</v>
-      </c>
-      <c r="O113">
-        <v>2</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q113" s="3">
-        <v>8</v>
-      </c>
-      <c r="R113" s="3">
-        <v>0</v>
-      </c>
-      <c r="S113" s="3">
-        <v>0</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>81</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC113" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE113">
-        <v>1</v>
-      </c>
-      <c r="AG113">
-        <v>30899</v>
-      </c>
-      <c r="AH113" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ113" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E114" t="s">
-        <v>42</v>
-      </c>
-      <c r="F114">
-        <v>17546</v>
-      </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K114" t="s">
-        <v>46</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N114">
-        <v>150</v>
-      </c>
-      <c r="O114">
-        <v>3</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q114" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="R114" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S114" s="3">
-        <v>0</v>
-      </c>
-      <c r="U114" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="Y114">
-        <v>81</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC114" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD114" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE114">
-        <v>1</v>
-      </c>
-      <c r="AG114">
-        <v>30899</v>
-      </c>
-      <c r="AH114" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI114" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ114" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" t="s">
-        <v>42</v>
-      </c>
-      <c r="F115">
-        <v>17546</v>
-      </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K115" t="s">
-        <v>46</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N115">
-        <v>150</v>
-      </c>
-      <c r="O115">
-        <v>3</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q115" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="R115" s="3">
-        <v>0</v>
-      </c>
-      <c r="S115" s="3">
-        <v>0</v>
-      </c>
-      <c r="U115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>81</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC115" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE115">
-        <v>1</v>
-      </c>
-      <c r="AG115">
-        <v>30899</v>
-      </c>
-      <c r="AH115" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI115" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ115" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>41</v>
-      </c>
-      <c r="E116" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116">
-        <v>17546</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K116" t="s">
-        <v>46</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N116">
-        <v>150</v>
-      </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q116" s="3">
-        <v>8</v>
-      </c>
-      <c r="R116" s="3">
-        <v>0</v>
-      </c>
-      <c r="S116" s="3">
-        <v>0</v>
-      </c>
-      <c r="U116" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V116">
-        <v>0</v>
-      </c>
-      <c r="Y116">
-        <v>81</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC116" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD116" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE116">
-        <v>1</v>
-      </c>
-      <c r="AG116">
-        <v>30899</v>
-      </c>
-      <c r="AH116" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI116" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ116" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>41</v>
-      </c>
-      <c r="E117" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117">
-        <v>17546</v>
-      </c>
-      <c r="G117">
-        <v>3</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K117" t="s">
-        <v>46</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N117">
-        <v>150</v>
-      </c>
-      <c r="O117">
-        <v>5</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q117" s="3">
-        <v>8</v>
-      </c>
-      <c r="R117" s="3">
-        <v>0</v>
-      </c>
-      <c r="S117" s="3">
-        <v>0</v>
-      </c>
-      <c r="U117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>81</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC117" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE117">
-        <v>1</v>
-      </c>
-      <c r="AG117">
-        <v>30899</v>
-      </c>
-      <c r="AH117" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI117" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ117" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>41</v>
-      </c>
-      <c r="E118" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118">
-        <v>17639</v>
-      </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K118" t="s">
-        <v>46</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N118">
-        <v>150</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q118" s="3">
-        <v>8</v>
-      </c>
-      <c r="R118" s="3">
-        <v>0</v>
-      </c>
-      <c r="S118" s="3">
-        <v>0</v>
-      </c>
-      <c r="U118" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>81</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC118" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE118">
-        <v>1</v>
-      </c>
-      <c r="AG118">
-        <v>30899</v>
-      </c>
-      <c r="AH118" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI118" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ118" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK118" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" t="s">
-        <v>42</v>
-      </c>
-      <c r="F119">
-        <v>17639</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119" t="s">
-        <v>46</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N119">
-        <v>150</v>
-      </c>
-      <c r="O119">
-        <v>2</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>8</v>
-      </c>
-      <c r="R119" s="3">
-        <v>0</v>
-      </c>
-      <c r="S119" s="3">
-        <v>0</v>
-      </c>
-      <c r="U119" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>81</v>
-      </c>
-      <c r="Z119" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC119" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE119">
-        <v>1</v>
-      </c>
-      <c r="AG119">
-        <v>30899</v>
-      </c>
-      <c r="AH119" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI119" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ119" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" t="s">
-        <v>42</v>
-      </c>
-      <c r="F120">
-        <v>17639</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K120" t="s">
-        <v>46</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N120">
-        <v>150</v>
-      </c>
-      <c r="O120">
-        <v>3</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q120" s="3">
-        <v>8</v>
-      </c>
-      <c r="R120" s="3">
-        <v>0</v>
-      </c>
-      <c r="S120" s="3">
-        <v>0</v>
-      </c>
-      <c r="U120" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
-      <c r="Y120">
-        <v>81</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC120" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE120">
-        <v>1</v>
-      </c>
-      <c r="AG120">
-        <v>30899</v>
-      </c>
-      <c r="AH120" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI120" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ120" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" t="s">
-        <v>42</v>
-      </c>
-      <c r="F121">
-        <v>17639</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K121" t="s">
-        <v>46</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N121">
-        <v>150</v>
-      </c>
-      <c r="O121">
-        <v>4</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q121" s="3">
-        <v>8</v>
-      </c>
-      <c r="R121" s="3">
-        <v>0</v>
-      </c>
-      <c r="S121" s="3">
-        <v>0</v>
-      </c>
-      <c r="U121" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>81</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC121" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE121">
-        <v>1</v>
-      </c>
-      <c r="AG121">
-        <v>30899</v>
-      </c>
-      <c r="AH121" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI121" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ121" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122">
-        <v>17677</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K122" t="s">
-        <v>46</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N122">
-        <v>150</v>
-      </c>
-      <c r="O122">
-        <v>1</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>8</v>
-      </c>
-      <c r="R122" s="3">
-        <v>0</v>
-      </c>
-      <c r="S122" s="3">
-        <v>0</v>
-      </c>
-      <c r="U122" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="Y122">
-        <v>81</v>
-      </c>
-      <c r="Z122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC122" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE122">
-        <v>1</v>
-      </c>
-      <c r="AG122">
-        <v>30899</v>
-      </c>
-      <c r="AH122" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI122" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ122" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK122" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123">
-        <v>17677</v>
-      </c>
-      <c r="G123">
-        <v>3</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K123" t="s">
-        <v>46</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N123">
-        <v>150</v>
-      </c>
-      <c r="O123">
-        <v>2</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>7</v>
-      </c>
-      <c r="R123" s="3">
-        <v>0</v>
-      </c>
-      <c r="S123" s="3">
-        <v>0</v>
-      </c>
-      <c r="U123" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>81</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC123" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE123">
-        <v>1</v>
-      </c>
-      <c r="AG123">
-        <v>30899</v>
-      </c>
-      <c r="AH123" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI123" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ123" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>41</v>
-      </c>
-      <c r="E124" t="s">
-        <v>42</v>
-      </c>
-      <c r="F124">
-        <v>17677</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K124" t="s">
-        <v>46</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N124">
-        <v>150</v>
-      </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>8</v>
-      </c>
-      <c r="R124" s="3">
-        <v>0</v>
-      </c>
-      <c r="S124" s="3">
-        <v>0</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>81</v>
-      </c>
-      <c r="Z124" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC124" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE124">
-        <v>1</v>
-      </c>
-      <c r="AG124">
-        <v>30899</v>
-      </c>
-      <c r="AH124" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI124" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ124" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125">
-        <v>17677</v>
-      </c>
-      <c r="G125">
-        <v>3</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K125" t="s">
-        <v>46</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N125">
-        <v>150</v>
-      </c>
-      <c r="O125">
-        <v>4</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>4</v>
-      </c>
-      <c r="R125" s="3">
-        <v>0</v>
-      </c>
-      <c r="S125" s="3">
-        <v>0</v>
-      </c>
-      <c r="U125" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>81</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC125" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE125">
-        <v>1</v>
-      </c>
-      <c r="AG125">
-        <v>30899</v>
-      </c>
-      <c r="AH125" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI125" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ125" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>41</v>
-      </c>
-      <c r="E126" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126">
-        <v>17750</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K126" t="s">
-        <v>46</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N126">
-        <v>150</v>
-      </c>
-      <c r="O126">
-        <v>3</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q126" s="3">
-        <v>9</v>
-      </c>
-      <c r="R126" s="3">
-        <v>0</v>
-      </c>
-      <c r="S126" s="3">
-        <v>0</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="Y126">
-        <v>81</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC126" s="4">
-        <v>44542</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE126">
-        <v>1</v>
-      </c>
-      <c r="AG126">
-        <v>30899</v>
-      </c>
-      <c r="AH126" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI126" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ126" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK126" t="s">
         <v>50</v>
       </c>
     </row>

--- a/documentation/HcssAcctCCT.xlsx
+++ b/documentation/HcssAcctCCT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2021\APC\12- DEC\4 WK 12-23-2021\TIMECARDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2021\APC\12- DEC\5 WK 12-31-2021\TIMECARDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="68">
   <si>
     <t>Status Code</t>
   </si>
@@ -158,7 +158,7 @@
     <t>108001</t>
   </si>
   <si>
-    <t>02</t>
+    <t>01</t>
   </si>
   <si>
     <t>0200201000</t>
@@ -179,7 +179,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>03</t>
+    <t>02</t>
   </si>
   <si>
     <t>0100106000</t>
@@ -203,22 +203,22 @@
     <t>6</t>
   </si>
   <si>
-    <t>108002</t>
+    <t>108950</t>
   </si>
   <si>
-    <t>9</t>
+    <t>0100104000</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>108002</t>
   </si>
   <si>
     <t>108006</t>
   </si>
   <si>
     <t>0200203000</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>04</t>
@@ -228,12 +228,6 @@
   </si>
   <si>
     <t>108013</t>
-  </si>
-  <si>
-    <t>108950</t>
-  </si>
-  <si>
-    <t>0100104000</t>
   </si>
 </sst>
 </file>
@@ -555,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +741,7 @@
         <v>13595</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -777,10 +771,10 @@
         <v>48</v>
       </c>
       <c r="Q2" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2" s="3">
         <v>0</v>
@@ -798,7 +792,7 @@
         <v>49</v>
       </c>
       <c r="AC2" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD2" t="s">
         <v>42</v>
@@ -807,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH2" s="3">
         <v>0</v>
@@ -842,13 +836,13 @@
         <v>13595</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>45</v>
@@ -875,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="3">
         <v>0</v>
@@ -893,7 +887,7 @@
         <v>49</v>
       </c>
       <c r="AC3" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD3" t="s">
         <v>42</v>
@@ -902,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH3" s="3">
         <v>0</v>
@@ -937,7 +931,7 @@
         <v>13595</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>43</v>
@@ -967,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="Q4" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
@@ -988,7 +982,7 @@
         <v>49</v>
       </c>
       <c r="AC4" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD4" t="s">
         <v>42</v>
@@ -997,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH4" s="3">
         <v>0</v>
@@ -1029,19 +1023,19 @@
         <v>42</v>
       </c>
       <c r="F5">
-        <v>13595</v>
+        <v>13598</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -1056,13 +1050,13 @@
         <v>150</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
@@ -1083,7 +1077,7 @@
         <v>49</v>
       </c>
       <c r="AC5" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD5" t="s">
         <v>42</v>
@@ -1092,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH5" s="3">
         <v>0</v>
@@ -1124,19 +1118,19 @@
         <v>42</v>
       </c>
       <c r="F6">
-        <v>13595</v>
+        <v>13598</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
         <v>46</v>
@@ -1151,13 +1145,13 @@
         <v>150</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -1178,7 +1172,7 @@
         <v>49</v>
       </c>
       <c r="AC6" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD6" t="s">
         <v>42</v>
@@ -1187,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH6" s="3">
         <v>0</v>
@@ -1222,13 +1216,13 @@
         <v>13598</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>52</v>
@@ -1273,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="AC7" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD7" t="s">
         <v>42</v>
@@ -1282,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1314,19 +1308,19 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>13598</v>
+        <v>13658</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
@@ -1338,16 +1332,16 @@
         <v>47</v>
       </c>
       <c r="N8">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -1368,7 +1362,7 @@
         <v>49</v>
       </c>
       <c r="AC8" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD8" t="s">
         <v>42</v>
@@ -1377,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
@@ -1409,19 +1403,19 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>13598</v>
+        <v>13672</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
@@ -1436,13 +1430,13 @@
         <v>150</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -1463,7 +1457,7 @@
         <v>49</v>
       </c>
       <c r="AC9" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD9" t="s">
         <v>42</v>
@@ -1472,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -1504,16 +1498,16 @@
         <v>42</v>
       </c>
       <c r="F10">
-        <v>13658</v>
+        <v>13672</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
@@ -1528,16 +1522,16 @@
         <v>47</v>
       </c>
       <c r="N10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1558,7 +1552,7 @@
         <v>49</v>
       </c>
       <c r="AC10" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD10" t="s">
         <v>42</v>
@@ -1567,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -1602,13 +1596,13 @@
         <v>13672</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
@@ -1632,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="Q11" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -1653,7 +1647,7 @@
         <v>49</v>
       </c>
       <c r="AC11" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD11" t="s">
         <v>42</v>
@@ -1662,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -1694,16 +1688,16 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>13672</v>
+        <v>13713</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>45</v>
@@ -1721,10 +1715,10 @@
         <v>150</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="3">
         <v>8</v>
@@ -1748,7 +1742,7 @@
         <v>49</v>
       </c>
       <c r="AC12" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD12" t="s">
         <v>42</v>
@@ -1757,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="AG12">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH12" s="3">
         <v>0</v>
@@ -1789,16 +1783,16 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>13672</v>
+        <v>13713</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
@@ -1816,10 +1810,10 @@
         <v>150</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="3">
         <v>8</v>
@@ -1843,7 +1837,7 @@
         <v>49</v>
       </c>
       <c r="AC13" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD13" t="s">
         <v>42</v>
@@ -1852,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -1887,16 +1881,16 @@
         <v>13713</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
@@ -1911,7 +1905,7 @@
         <v>150</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>48</v>
@@ -1938,7 +1932,7 @@
         <v>49</v>
       </c>
       <c r="AC14" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD14" t="s">
         <v>42</v>
@@ -1947,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="AG14">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -1979,16 +1973,16 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>13713</v>
+        <v>13993</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
@@ -2006,13 +2000,13 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -2033,7 +2027,7 @@
         <v>49</v>
       </c>
       <c r="AC15" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD15" t="s">
         <v>42</v>
@@ -2042,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -2074,16 +2068,16 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>13713</v>
+        <v>13993</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
@@ -2101,13 +2095,13 @@
         <v>150</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R16" s="3">
         <v>0</v>
@@ -2128,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="AC16" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD16" t="s">
         <v>42</v>
@@ -2137,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -2169,16 +2163,16 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>13713</v>
+        <v>13993</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
@@ -2196,10 +2190,10 @@
         <v>150</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="3">
         <v>8</v>
@@ -2223,7 +2217,7 @@
         <v>49</v>
       </c>
       <c r="AC17" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD17" t="s">
         <v>42</v>
@@ -2232,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -2264,16 +2258,16 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>13993</v>
+        <v>14621</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
@@ -2291,7 +2285,7 @@
         <v>150</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>58</v>
@@ -2318,7 +2312,7 @@
         <v>49</v>
       </c>
       <c r="AC18" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD18" t="s">
         <v>42</v>
@@ -2327,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AG18">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2359,16 +2353,16 @@
         <v>42</v>
       </c>
       <c r="F19">
-        <v>13993</v>
+        <v>14621</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
@@ -2386,7 +2380,7 @@
         <v>150</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>58</v>
@@ -2413,7 +2407,7 @@
         <v>49</v>
       </c>
       <c r="AC19" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD19" t="s">
         <v>42</v>
@@ -2422,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH19" s="3">
         <v>0</v>
@@ -2454,16 +2448,16 @@
         <v>42</v>
       </c>
       <c r="F20">
-        <v>13993</v>
+        <v>14621</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
@@ -2481,7 +2475,7 @@
         <v>150</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>58</v>
@@ -2508,7 +2502,7 @@
         <v>49</v>
       </c>
       <c r="AC20" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD20" t="s">
         <v>42</v>
@@ -2517,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
@@ -2549,19 +2543,19 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>14096</v>
+        <v>15023</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -2582,7 +2576,7 @@
         <v>56</v>
       </c>
       <c r="Q21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -2603,7 +2597,7 @@
         <v>49</v>
       </c>
       <c r="AC21" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD21" t="s">
         <v>42</v>
@@ -2612,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH21" s="3">
         <v>0</v>
@@ -2644,19 +2638,19 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>14096</v>
+        <v>15042</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
         <v>46</v>
@@ -2671,13 +2665,13 @@
         <v>250</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q22" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -2698,7 +2692,7 @@
         <v>49</v>
       </c>
       <c r="AC22" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD22" t="s">
         <v>42</v>
@@ -2707,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH22" s="3">
         <v>0</v>
@@ -2739,16 +2733,16 @@
         <v>42</v>
       </c>
       <c r="F23">
-        <v>14361</v>
+        <v>15089</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>45</v>
@@ -2763,16 +2757,16 @@
         <v>47</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="3">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -2793,7 +2787,7 @@
         <v>49</v>
       </c>
       <c r="AC23" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD23" t="s">
         <v>42</v>
@@ -2802,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="AG23">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH23" s="3">
         <v>0</v>
@@ -2834,16 +2828,16 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>14621</v>
+        <v>15523</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>45</v>
@@ -2858,16 +2852,16 @@
         <v>47</v>
       </c>
       <c r="N24">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2888,7 +2882,7 @@
         <v>49</v>
       </c>
       <c r="AC24" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD24" t="s">
         <v>42</v>
@@ -2897,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH24" s="3">
         <v>0</v>
@@ -2929,16 +2923,16 @@
         <v>42</v>
       </c>
       <c r="F25">
-        <v>14621</v>
+        <v>15523</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>45</v>
@@ -2953,13 +2947,13 @@
         <v>47</v>
       </c>
       <c r="N25">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="3">
         <v>8</v>
@@ -2983,7 +2977,7 @@
         <v>49</v>
       </c>
       <c r="AC25" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD25" t="s">
         <v>42</v>
@@ -2992,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="AG25">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH25" s="3">
         <v>0</v>
@@ -3024,16 +3018,16 @@
         <v>42</v>
       </c>
       <c r="F26">
-        <v>14621</v>
+        <v>15973</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>45</v>
@@ -3048,16 +3042,16 @@
         <v>47</v>
       </c>
       <c r="N26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q26" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -3078,7 +3072,7 @@
         <v>49</v>
       </c>
       <c r="AC26" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD26" t="s">
         <v>42</v>
@@ -3087,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH26" s="3">
         <v>0</v>
@@ -3119,16 +3113,16 @@
         <v>42</v>
       </c>
       <c r="F27">
-        <v>15023</v>
+        <v>15973</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>45</v>
@@ -3143,16 +3137,16 @@
         <v>47</v>
       </c>
       <c r="N27">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -3173,7 +3167,7 @@
         <v>49</v>
       </c>
       <c r="AC27" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD27" t="s">
         <v>42</v>
@@ -3182,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="AG27">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH27" s="3">
         <v>0</v>
@@ -3214,16 +3208,16 @@
         <v>42</v>
       </c>
       <c r="F28">
-        <v>15023</v>
+        <v>15974</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>45</v>
@@ -3238,19 +3232,19 @@
         <v>47</v>
       </c>
       <c r="N28">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="3">
         <v>8</v>
       </c>
       <c r="R28" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -3268,7 +3262,7 @@
         <v>49</v>
       </c>
       <c r="AC28" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD28" t="s">
         <v>42</v>
@@ -3277,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="AG28">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
@@ -3309,16 +3303,16 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>15023</v>
+        <v>15974</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>45</v>
@@ -3333,16 +3327,16 @@
         <v>47</v>
       </c>
       <c r="N29">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -3363,7 +3357,7 @@
         <v>49</v>
       </c>
       <c r="AC29" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD29" t="s">
         <v>42</v>
@@ -3372,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AG29">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
@@ -3404,19 +3398,19 @@
         <v>42</v>
       </c>
       <c r="F30">
-        <v>15042</v>
+        <v>15974</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
@@ -3428,16 +3422,16 @@
         <v>47</v>
       </c>
       <c r="N30">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O30">
         <v>3</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R30" s="3">
         <v>0</v>
@@ -3458,7 +3452,7 @@
         <v>49</v>
       </c>
       <c r="AC30" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD30" t="s">
         <v>42</v>
@@ -3467,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="AG30">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH30" s="3">
         <v>0</v>
@@ -3499,16 +3493,16 @@
         <v>42</v>
       </c>
       <c r="F31">
-        <v>15089</v>
+        <v>16227</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>45</v>
@@ -3523,13 +3517,13 @@
         <v>47</v>
       </c>
       <c r="N31">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="3">
         <v>8.5</v>
@@ -3553,7 +3547,7 @@
         <v>49</v>
       </c>
       <c r="AC31" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD31" t="s">
         <v>42</v>
@@ -3562,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -3594,16 +3588,16 @@
         <v>42</v>
       </c>
       <c r="F32">
-        <v>15089</v>
+        <v>16227</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>45</v>
@@ -3618,19 +3612,19 @@
         <v>47</v>
       </c>
       <c r="N32">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="3">
         <v>8</v>
       </c>
       <c r="R32" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -3648,7 +3642,7 @@
         <v>49</v>
       </c>
       <c r="AC32" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD32" t="s">
         <v>42</v>
@@ -3657,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH32" s="3">
         <v>0</v>
@@ -3689,16 +3683,16 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>15089</v>
+        <v>16422</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>45</v>
@@ -3713,16 +3707,16 @@
         <v>47</v>
       </c>
       <c r="N33">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q33" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -3743,7 +3737,7 @@
         <v>49</v>
       </c>
       <c r="AC33" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD33" t="s">
         <v>42</v>
@@ -3752,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="AG33">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -3784,16 +3778,16 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>15523</v>
+        <v>16422</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>45</v>
@@ -3808,13 +3802,13 @@
         <v>47</v>
       </c>
       <c r="N34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="3">
         <v>8</v>
@@ -3838,7 +3832,7 @@
         <v>49</v>
       </c>
       <c r="AC34" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD34" t="s">
         <v>42</v>
@@ -3847,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="AG34">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -3879,16 +3873,16 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>15523</v>
+        <v>16422</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>45</v>
@@ -3903,13 +3897,13 @@
         <v>47</v>
       </c>
       <c r="N35">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q35" s="3">
         <v>8</v>
@@ -3933,7 +3927,7 @@
         <v>49</v>
       </c>
       <c r="AC35" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD35" t="s">
         <v>42</v>
@@ -3942,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -3974,16 +3968,16 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>15523</v>
+        <v>16583</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>45</v>
@@ -3998,16 +3992,16 @@
         <v>47</v>
       </c>
       <c r="N36">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="3">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -4028,7 +4022,7 @@
         <v>49</v>
       </c>
       <c r="AC36" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD36" t="s">
         <v>42</v>
@@ -4037,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="AG36">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -4069,19 +4063,19 @@
         <v>42</v>
       </c>
       <c r="F37">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
         <v>46</v>
@@ -4093,16 +4087,16 @@
         <v>47</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R37" s="3">
         <v>0</v>
@@ -4123,7 +4117,7 @@
         <v>49</v>
       </c>
       <c r="AC37" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD37" t="s">
         <v>42</v>
@@ -4132,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -4164,19 +4158,19 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s">
         <v>46</v>
@@ -4188,16 +4182,16 @@
         <v>47</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="3">
         <v>4</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>8</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>49</v>
       </c>
       <c r="AC38" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD38" t="s">
         <v>42</v>
@@ -4227,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="AG38">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -4259,19 +4253,19 @@
         <v>42</v>
       </c>
       <c r="F39">
-        <v>15973</v>
+        <v>16970</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
         <v>46</v>
@@ -4283,16 +4277,16 @@
         <v>47</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="3">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="R39" s="3">
         <v>0</v>
@@ -4313,7 +4307,7 @@
         <v>49</v>
       </c>
       <c r="AC39" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD39" t="s">
         <v>42</v>
@@ -4322,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -4354,19 +4348,19 @@
         <v>42</v>
       </c>
       <c r="F40">
-        <v>15974</v>
+        <v>16970</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s">
         <v>46</v>
@@ -4378,16 +4372,16 @@
         <v>47</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O40">
         <v>2</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q40" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -4408,7 +4402,7 @@
         <v>49</v>
       </c>
       <c r="AC40" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD40" t="s">
         <v>42</v>
@@ -4417,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="AG40">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -4449,10 +4443,10 @@
         <v>42</v>
       </c>
       <c r="F41">
-        <v>15974</v>
+        <v>16970</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>43</v>
@@ -4461,7 +4455,7 @@
         <v>44</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -4473,16 +4467,16 @@
         <v>47</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O41">
         <v>3</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q41" s="3">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -4503,7 +4497,7 @@
         <v>49</v>
       </c>
       <c r="AC41" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD41" t="s">
         <v>42</v>
@@ -4512,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="AG41">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -4544,19 +4538,19 @@
         <v>42</v>
       </c>
       <c r="F42">
-        <v>15974</v>
+        <v>16970</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s">
         <v>46</v>
@@ -4568,16 +4562,16 @@
         <v>47</v>
       </c>
       <c r="N42">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>8.5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -4598,7 +4592,7 @@
         <v>49</v>
       </c>
       <c r="AC42" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD42" t="s">
         <v>42</v>
@@ -4607,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="AG42">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH42" s="3">
         <v>0</v>
@@ -4639,19 +4633,19 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <v>15974</v>
+        <v>17029</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K43" t="s">
         <v>46</v>
@@ -4663,13 +4657,13 @@
         <v>47</v>
       </c>
       <c r="N43">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="3">
         <v>8</v>
@@ -4693,7 +4687,7 @@
         <v>49</v>
       </c>
       <c r="AC43" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD43" t="s">
         <v>42</v>
@@ -4702,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="AG43">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -4734,19 +4728,19 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>16150</v>
+        <v>17029</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K44" t="s">
         <v>46</v>
@@ -4761,13 +4755,13 @@
         <v>150</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Q44" s="3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -4788,7 +4782,7 @@
         <v>49</v>
       </c>
       <c r="AC44" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD44" t="s">
         <v>42</v>
@@ -4797,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="AG44">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -4829,19 +4823,19 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <v>16227</v>
+        <v>17029</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>44</v>
+      <c r="I45" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
@@ -4853,16 +4847,16 @@
         <v>47</v>
       </c>
       <c r="N45">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q45" s="3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -4883,7 +4877,7 @@
         <v>49</v>
       </c>
       <c r="AC45" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD45" t="s">
         <v>42</v>
@@ -4892,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="AG45">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -4924,19 +4918,19 @@
         <v>42</v>
       </c>
       <c r="F46">
-        <v>16227</v>
+        <v>17159</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K46" t="s">
         <v>46</v>
@@ -4948,13 +4942,13 @@
         <v>47</v>
       </c>
       <c r="N46">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q46" s="3">
         <v>7.5</v>
@@ -4978,7 +4972,7 @@
         <v>49</v>
       </c>
       <c r="AC46" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD46" t="s">
         <v>42</v>
@@ -4987,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="AG46">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -5019,19 +5013,19 @@
         <v>42</v>
       </c>
       <c r="F47">
-        <v>16422</v>
+        <v>17159</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K47" t="s">
         <v>46</v>
@@ -5043,16 +5037,16 @@
         <v>47</v>
       </c>
       <c r="N47">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q47" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -5073,7 +5067,7 @@
         <v>49</v>
       </c>
       <c r="AC47" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD47" t="s">
         <v>42</v>
@@ -5082,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="AG47">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -5114,19 +5108,19 @@
         <v>42</v>
       </c>
       <c r="F48">
-        <v>16422</v>
+        <v>17163</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K48" t="s">
         <v>46</v>
@@ -5141,13 +5135,13 @@
         <v>100</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q48" s="3">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -5168,7 +5162,7 @@
         <v>49</v>
       </c>
       <c r="AC48" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD48" t="s">
         <v>42</v>
@@ -5177,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="AG48">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH48" s="3">
         <v>0</v>
@@ -5209,19 +5203,19 @@
         <v>42</v>
       </c>
       <c r="F49">
-        <v>16583</v>
+        <v>17163</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K49" t="s">
         <v>46</v>
@@ -5236,13 +5230,13 @@
         <v>100</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q49" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -5263,7 +5257,7 @@
         <v>49</v>
       </c>
       <c r="AC49" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD49" t="s">
         <v>42</v>
@@ -5272,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH49" s="3">
         <v>0</v>
@@ -5304,19 +5298,19 @@
         <v>42</v>
       </c>
       <c r="F50">
-        <v>16970</v>
+        <v>17413</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
@@ -5331,13 +5325,13 @@
         <v>150</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R50" s="3">
         <v>0</v>
@@ -5358,7 +5352,7 @@
         <v>49</v>
       </c>
       <c r="AC50" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD50" t="s">
         <v>42</v>
@@ -5367,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="AG50">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -5399,19 +5393,19 @@
         <v>42</v>
       </c>
       <c r="F51">
-        <v>16970</v>
+        <v>17413</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
         <v>46</v>
@@ -5429,10 +5423,10 @@
         <v>2</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q51" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R51" s="3">
         <v>0</v>
@@ -5453,7 +5447,7 @@
         <v>49</v>
       </c>
       <c r="AC51" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD51" t="s">
         <v>42</v>
@@ -5462,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="AG51">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -5494,19 +5488,19 @@
         <v>42</v>
       </c>
       <c r="F52">
-        <v>16970</v>
+        <v>17413</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K52" t="s">
         <v>46</v>
@@ -5524,10 +5518,10 @@
         <v>3</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q52" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -5548,7 +5542,7 @@
         <v>49</v>
       </c>
       <c r="AC52" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD52" t="s">
         <v>42</v>
@@ -5557,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AG52">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -5589,19 +5583,19 @@
         <v>42</v>
       </c>
       <c r="F53">
-        <v>16970</v>
+        <v>17461</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
         <v>46</v>
@@ -5616,13 +5610,13 @@
         <v>150</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q53" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R53" s="3">
         <v>0</v>
@@ -5643,7 +5637,7 @@
         <v>49</v>
       </c>
       <c r="AC53" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD53" t="s">
         <v>42</v>
@@ -5652,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="AG53">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -5684,19 +5678,19 @@
         <v>42</v>
       </c>
       <c r="F54">
-        <v>16970</v>
+        <v>17461</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -5711,13 +5705,13 @@
         <v>150</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q54" s="3">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -5738,7 +5732,7 @@
         <v>49</v>
       </c>
       <c r="AC54" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD54" t="s">
         <v>42</v>
@@ -5747,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="AG54">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH54" s="3">
         <v>0</v>
@@ -5779,19 +5773,19 @@
         <v>42</v>
       </c>
       <c r="F55">
-        <v>16970</v>
+        <v>17475</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
@@ -5806,13 +5800,13 @@
         <v>150</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q55" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R55" s="3">
         <v>0</v>
@@ -5833,7 +5827,7 @@
         <v>49</v>
       </c>
       <c r="AC55" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD55" t="s">
         <v>42</v>
@@ -5842,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="AG55">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH55" s="3">
         <v>0</v>
@@ -5874,19 +5868,19 @@
         <v>42</v>
       </c>
       <c r="F56">
-        <v>16970</v>
+        <v>17546</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -5901,13 +5895,13 @@
         <v>150</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q56" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R56" s="3">
         <v>0</v>
@@ -5928,7 +5922,7 @@
         <v>49</v>
       </c>
       <c r="AC56" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD56" t="s">
         <v>42</v>
@@ -5937,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="AG56">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH56" s="3">
         <v>0</v>
@@ -5969,19 +5963,19 @@
         <v>42</v>
       </c>
       <c r="F57">
-        <v>16970</v>
+        <v>17546</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K57" t="s">
         <v>46</v>
@@ -5996,13 +5990,13 @@
         <v>150</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q57" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -6023,7 +6017,7 @@
         <v>49</v>
       </c>
       <c r="AC57" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD57" t="s">
         <v>42</v>
@@ -6032,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="AG57">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH57" s="3">
         <v>0</v>
@@ -6064,19 +6058,19 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>17029</v>
+        <v>17546</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K58" t="s">
         <v>46</v>
@@ -6094,10 +6088,10 @@
         <v>3</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q58" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -6118,7 +6112,7 @@
         <v>49</v>
       </c>
       <c r="AC58" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD58" t="s">
         <v>42</v>
@@ -6127,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="AG58">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH58" s="3">
         <v>0</v>
@@ -6159,19 +6153,19 @@
         <v>42</v>
       </c>
       <c r="F59">
-        <v>17029</v>
+        <v>17639</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s">
         <v>46</v>
@@ -6186,13 +6180,13 @@
         <v>150</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q59" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -6213,7 +6207,7 @@
         <v>49</v>
       </c>
       <c r="AC59" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD59" t="s">
         <v>42</v>
@@ -6222,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="AG59">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH59" s="3">
         <v>0</v>
@@ -6254,19 +6248,19 @@
         <v>42</v>
       </c>
       <c r="F60">
-        <v>17159</v>
+        <v>17677</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s">
         <v>46</v>
@@ -6284,10 +6278,10 @@
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q60" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -6308,7 +6302,7 @@
         <v>49</v>
       </c>
       <c r="AC60" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
@@ -6317,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="AG60">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH60" s="3">
         <v>0</v>
@@ -6349,19 +6343,19 @@
         <v>42</v>
       </c>
       <c r="F61">
-        <v>17159</v>
+        <v>17677</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s">
         <v>46</v>
@@ -6376,13 +6370,13 @@
         <v>150</v>
       </c>
       <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>6.5</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -6403,7 +6397,7 @@
         <v>49</v>
       </c>
       <c r="AC61" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD61" t="s">
         <v>42</v>
@@ -6412,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="AG61">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH61" s="3">
         <v>0</v>
@@ -6444,16 +6438,16 @@
         <v>42</v>
       </c>
       <c r="F62">
-        <v>17159</v>
+        <v>17750</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>45</v>
@@ -6471,13 +6465,13 @@
         <v>150</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q62" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -6498,7 +6492,7 @@
         <v>49</v>
       </c>
       <c r="AC62" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD62" t="s">
         <v>42</v>
@@ -6507,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="AG62">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH62" s="3">
         <v>0</v>
@@ -6539,19 +6533,19 @@
         <v>42</v>
       </c>
       <c r="F63">
-        <v>17159</v>
+        <v>17750</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
@@ -6566,10 +6560,10 @@
         <v>150</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q63" s="3">
         <v>8</v>
@@ -6593,7 +6587,7 @@
         <v>49</v>
       </c>
       <c r="AC63" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD63" t="s">
         <v>42</v>
@@ -6602,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH63" s="3">
         <v>0</v>
@@ -6634,19 +6628,19 @@
         <v>42</v>
       </c>
       <c r="F64">
-        <v>17163</v>
+        <v>17750</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s">
         <v>46</v>
@@ -6658,13 +6652,13 @@
         <v>47</v>
       </c>
       <c r="N64">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q64" s="3">
         <v>8</v>
@@ -6688,7 +6682,7 @@
         <v>49</v>
       </c>
       <c r="AC64" s="4">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AD64" t="s">
         <v>42</v>
@@ -6697,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="AG64">
-        <v>40899</v>
+        <v>50899</v>
       </c>
       <c r="AH64" s="3">
         <v>0</v>
@@ -6709,1336 +6703,6 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65">
-        <v>17461</v>
-      </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K65" t="s">
-        <v>46</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N65">
-        <v>150</v>
-      </c>
-      <c r="O65">
-        <v>5</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>8</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC65" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-      <c r="AG65">
-        <v>40899</v>
-      </c>
-      <c r="AH65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66">
-        <v>17475</v>
-      </c>
-      <c r="G66">
-        <v>4</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K66" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N66">
-        <v>150</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>9</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC66" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE66">
-        <v>1</v>
-      </c>
-      <c r="AG66">
-        <v>40899</v>
-      </c>
-      <c r="AH66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67">
-        <v>17546</v>
-      </c>
-      <c r="G67">
-        <v>4</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K67" t="s">
-        <v>46</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N67">
-        <v>150</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>8</v>
-      </c>
-      <c r="R67" s="3">
-        <v>0</v>
-      </c>
-      <c r="S67" s="3">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>81</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC67" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE67">
-        <v>1</v>
-      </c>
-      <c r="AG67">
-        <v>40899</v>
-      </c>
-      <c r="AH67" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68">
-        <v>17546</v>
-      </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K68" t="s">
-        <v>46</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N68">
-        <v>150</v>
-      </c>
-      <c r="O68">
-        <v>3</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>8</v>
-      </c>
-      <c r="R68" s="3">
-        <v>0</v>
-      </c>
-      <c r="S68" s="3">
-        <v>0</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>81</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC68" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE68">
-        <v>1</v>
-      </c>
-      <c r="AG68">
-        <v>40899</v>
-      </c>
-      <c r="AH68" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F69">
-        <v>17546</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K69" t="s">
-        <v>46</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N69">
-        <v>150</v>
-      </c>
-      <c r="O69">
-        <v>5</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>8</v>
-      </c>
-      <c r="R69" s="3">
-        <v>0</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>81</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC69" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE69">
-        <v>1</v>
-      </c>
-      <c r="AG69">
-        <v>40899</v>
-      </c>
-      <c r="AH69" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70">
-        <v>17639</v>
-      </c>
-      <c r="G70">
-        <v>4</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K70" t="s">
-        <v>46</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N70">
-        <v>150</v>
-      </c>
-      <c r="O70">
-        <v>2</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>8</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC70" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE70">
-        <v>1</v>
-      </c>
-      <c r="AG70">
-        <v>40899</v>
-      </c>
-      <c r="AH70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71">
-        <v>17639</v>
-      </c>
-      <c r="G71">
-        <v>4</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71" t="s">
-        <v>46</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N71">
-        <v>150</v>
-      </c>
-      <c r="O71">
-        <v>3</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0</v>
-      </c>
-      <c r="S71" s="3">
-        <v>0</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC71" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE71">
-        <v>1</v>
-      </c>
-      <c r="AG71">
-        <v>40899</v>
-      </c>
-      <c r="AH71" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72">
-        <v>17639</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K72" t="s">
-        <v>46</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N72">
-        <v>150</v>
-      </c>
-      <c r="O72">
-        <v>4</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="U72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC72" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE72">
-        <v>1</v>
-      </c>
-      <c r="AG72">
-        <v>40899</v>
-      </c>
-      <c r="AH72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73">
-        <v>17639</v>
-      </c>
-      <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" t="s">
-        <v>46</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N73">
-        <v>150</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>8</v>
-      </c>
-      <c r="R73" s="3">
-        <v>0</v>
-      </c>
-      <c r="S73" s="3">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>81</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC73" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE73">
-        <v>1</v>
-      </c>
-      <c r="AG73">
-        <v>40899</v>
-      </c>
-      <c r="AH73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74">
-        <v>17656</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K74" t="s">
-        <v>46</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N74">
-        <v>130</v>
-      </c>
-      <c r="O74">
-        <v>3</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="R74" s="3">
-        <v>0</v>
-      </c>
-      <c r="S74" s="3">
-        <v>0</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC74" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE74">
-        <v>1</v>
-      </c>
-      <c r="AG74">
-        <v>40899</v>
-      </c>
-      <c r="AH74" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75">
-        <v>17677</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" t="s">
-        <v>46</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N75">
-        <v>150</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>8</v>
-      </c>
-      <c r="R75" s="3">
-        <v>0</v>
-      </c>
-      <c r="S75" s="3">
-        <v>0</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>81</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC75" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE75">
-        <v>1</v>
-      </c>
-      <c r="AG75">
-        <v>40899</v>
-      </c>
-      <c r="AH75" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76">
-        <v>17677</v>
-      </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" t="s">
-        <v>46</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N76">
-        <v>150</v>
-      </c>
-      <c r="O76">
-        <v>2</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>81</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC76" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE76">
-        <v>1</v>
-      </c>
-      <c r="AG76">
-        <v>40899</v>
-      </c>
-      <c r="AH76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77">
-        <v>17677</v>
-      </c>
-      <c r="G77">
-        <v>4</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K77" t="s">
-        <v>46</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N77">
-        <v>150</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>2</v>
-      </c>
-      <c r="R77" s="3">
-        <v>0</v>
-      </c>
-      <c r="S77" s="3">
-        <v>0</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>81</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC77" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE77">
-        <v>1</v>
-      </c>
-      <c r="AG77">
-        <v>40899</v>
-      </c>
-      <c r="AH77" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78">
-        <v>17750</v>
-      </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K78" t="s">
-        <v>46</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N78">
-        <v>150</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>9</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC78" s="4">
-        <v>44549</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE78">
-        <v>1</v>
-      </c>
-      <c r="AG78">
-        <v>40899</v>
-      </c>
-      <c r="AH78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="s">
         <v>50</v>
       </c>
     </row>

--- a/documentation/HcssAcctCCT.xlsx
+++ b/documentation/HcssAcctCCT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2021\APC\12- DEC\5 WK 12-31-2021\TIMECARDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Accounting_Files\Payroll\2022\_HCSSDUMPS\HEAVY\2-6-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="69">
   <si>
     <t>Status Code</t>
   </si>
@@ -155,10 +155,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>108001</t>
+    <t>208001</t>
   </si>
   <si>
-    <t>01</t>
+    <t>03</t>
   </si>
   <si>
     <t>0200201000</t>
@@ -182,52 +182,55 @@
     <t>02</t>
   </si>
   <si>
+    <t>208011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>208306</t>
+  </si>
+  <si>
+    <t>0200203000</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>208302</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>208002</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>208204</t>
+  </si>
+  <si>
     <t>0100106000</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>108307</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>108003</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>108950</t>
-  </si>
-  <si>
-    <t>0100104000</t>
-  </si>
-  <si>
-    <t>108002</t>
-  </si>
-  <si>
-    <t>108006</t>
-  </si>
-  <si>
-    <t>0200203000</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>04</t>
+    <t>208006</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>108013</t>
   </si>
 </sst>
 </file>
@@ -549,11 +552,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -741,7 +742,7 @@
         <v>13595</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>43</v>
@@ -771,10 +772,10 @@
         <v>48</v>
       </c>
       <c r="Q2" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3">
         <v>0</v>
@@ -792,7 +793,7 @@
         <v>49</v>
       </c>
       <c r="AC2" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD2" t="s">
         <v>42</v>
@@ -801,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH2" s="3">
         <v>0</v>
@@ -836,7 +837,7 @@
         <v>13595</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>43</v>
@@ -866,10 +867,10 @@
         <v>48</v>
       </c>
       <c r="Q3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3">
         <v>0</v>
@@ -887,7 +888,7 @@
         <v>49</v>
       </c>
       <c r="AC3" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD3" t="s">
         <v>42</v>
@@ -896,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH3" s="3">
         <v>0</v>
@@ -931,13 +932,13 @@
         <v>13595</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>45</v>
@@ -961,10 +962,10 @@
         <v>48</v>
       </c>
       <c r="Q4" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
@@ -982,7 +983,7 @@
         <v>49</v>
       </c>
       <c r="AC4" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD4" t="s">
         <v>42</v>
@@ -991,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH4" s="3">
         <v>0</v>
@@ -1023,10 +1024,10 @@
         <v>42</v>
       </c>
       <c r="F5">
-        <v>13598</v>
+        <v>13595</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
@@ -1035,7 +1036,7 @@
         <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -1050,13 +1051,13 @@
         <v>150</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
@@ -1077,7 +1078,7 @@
         <v>49</v>
       </c>
       <c r="AC5" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD5" t="s">
         <v>42</v>
@@ -1086,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH5" s="3">
         <v>0</v>
@@ -1118,19 +1119,19 @@
         <v>42</v>
       </c>
       <c r="F6">
-        <v>13598</v>
+        <v>13595</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>46</v>
@@ -1145,13 +1146,13 @@
         <v>150</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R6" s="3">
         <v>0</v>
@@ -1172,7 +1173,7 @@
         <v>49</v>
       </c>
       <c r="AC6" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD6" t="s">
         <v>42</v>
@@ -1181,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="AG6">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH6" s="3">
         <v>0</v>
@@ -1213,19 +1214,19 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>13598</v>
+        <v>13658</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
         <v>46</v>
@@ -1237,16 +1238,16 @@
         <v>47</v>
       </c>
       <c r="N7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q7" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -1267,7 +1268,7 @@
         <v>49</v>
       </c>
       <c r="AC7" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD7" t="s">
         <v>42</v>
@@ -1276,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1308,16 +1309,16 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>13658</v>
+        <v>13713</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
@@ -1332,16 +1333,16 @@
         <v>47</v>
       </c>
       <c r="N8">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -1362,7 +1363,7 @@
         <v>49</v>
       </c>
       <c r="AC8" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD8" t="s">
         <v>42</v>
@@ -1371,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="AG8">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
@@ -1403,13 +1404,13 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>13672</v>
+        <v>13713</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>51</v>
@@ -1430,10 +1431,10 @@
         <v>150</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="3">
         <v>9</v>
@@ -1457,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="AC9" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD9" t="s">
         <v>42</v>
@@ -1466,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -1498,16 +1499,16 @@
         <v>42</v>
       </c>
       <c r="F10">
-        <v>13672</v>
+        <v>13713</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
@@ -1525,13 +1526,13 @@
         <v>150</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1552,7 +1553,7 @@
         <v>49</v>
       </c>
       <c r="AC10" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD10" t="s">
         <v>42</v>
@@ -1561,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH10" s="3">
         <v>0</v>
@@ -1593,13 +1594,13 @@
         <v>42</v>
       </c>
       <c r="F11">
-        <v>13672</v>
+        <v>13713</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -1620,13 +1621,13 @@
         <v>150</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -1647,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="AC11" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD11" t="s">
         <v>42</v>
@@ -1656,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -1688,19 +1689,19 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <v>13713</v>
+        <v>14008</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
@@ -1742,7 +1743,7 @@
         <v>49</v>
       </c>
       <c r="AC12" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD12" t="s">
         <v>42</v>
@@ -1751,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="AG12">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH12" s="3">
         <v>0</v>
@@ -1783,19 +1784,19 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>13713</v>
+        <v>14008</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>46</v>
@@ -1816,7 +1817,7 @@
         <v>48</v>
       </c>
       <c r="Q13" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
@@ -1837,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="AC13" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD13" t="s">
         <v>42</v>
@@ -1846,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH13" s="3">
         <v>0</v>
@@ -1878,19 +1879,19 @@
         <v>42</v>
       </c>
       <c r="F14">
-        <v>13713</v>
+        <v>14008</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
@@ -1911,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="Q14" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1932,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="AC14" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD14" t="s">
         <v>42</v>
@@ -1941,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AG14">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -1973,19 +1974,19 @@
         <v>42</v>
       </c>
       <c r="F15">
-        <v>13993</v>
+        <v>14008</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -2000,13 +2001,13 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -2027,7 +2028,7 @@
         <v>49</v>
       </c>
       <c r="AC15" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD15" t="s">
         <v>42</v>
@@ -2036,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -2068,19 +2069,19 @@
         <v>42</v>
       </c>
       <c r="F16">
-        <v>13993</v>
+        <v>14008</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
@@ -2095,10 +2096,10 @@
         <v>150</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="3">
         <v>8</v>
@@ -2122,7 +2123,7 @@
         <v>49</v>
       </c>
       <c r="AC16" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD16" t="s">
         <v>42</v>
@@ -2131,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
@@ -2163,16 +2164,16 @@
         <v>42</v>
       </c>
       <c r="F17">
-        <v>13993</v>
+        <v>14311</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
@@ -2190,10 +2191,10 @@
         <v>150</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="3">
         <v>8</v>
@@ -2217,7 +2218,7 @@
         <v>49</v>
       </c>
       <c r="AC17" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD17" t="s">
         <v>42</v>
@@ -2226,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -2258,19 +2259,19 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>14621</v>
+        <v>14335</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
@@ -2282,16 +2283,16 @@
         <v>47</v>
       </c>
       <c r="N18">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -2312,7 +2313,7 @@
         <v>49</v>
       </c>
       <c r="AC18" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD18" t="s">
         <v>42</v>
@@ -2321,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="AG18">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -2356,13 +2357,13 @@
         <v>14621</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
@@ -2380,13 +2381,13 @@
         <v>150</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R19" s="3">
         <v>0</v>
@@ -2407,7 +2408,7 @@
         <v>49</v>
       </c>
       <c r="AC19" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD19" t="s">
         <v>42</v>
@@ -2416,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH19" s="3">
         <v>0</v>
@@ -2451,13 +2452,13 @@
         <v>14621</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
@@ -2475,13 +2476,13 @@
         <v>150</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -2502,7 +2503,7 @@
         <v>49</v>
       </c>
       <c r="AC20" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD20" t="s">
         <v>42</v>
@@ -2511,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
@@ -2543,16 +2544,16 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>15023</v>
+        <v>14622</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>45</v>
@@ -2567,16 +2568,16 @@
         <v>47</v>
       </c>
       <c r="N21">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -2597,7 +2598,7 @@
         <v>49</v>
       </c>
       <c r="AC21" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD21" t="s">
         <v>42</v>
@@ -2606,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH21" s="3">
         <v>0</v>
@@ -2638,16 +2639,16 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>15042</v>
+        <v>14622</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>45</v>
@@ -2662,16 +2663,16 @@
         <v>47</v>
       </c>
       <c r="N22">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -2692,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="AC22" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD22" t="s">
         <v>42</v>
@@ -2701,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH22" s="3">
         <v>0</v>
@@ -2733,19 +2734,19 @@
         <v>42</v>
       </c>
       <c r="F23">
-        <v>15089</v>
+        <v>14671</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
@@ -2760,13 +2761,13 @@
         <v>150</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="3">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -2787,7 +2788,7 @@
         <v>49</v>
       </c>
       <c r="AC23" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD23" t="s">
         <v>42</v>
@@ -2796,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="AG23">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH23" s="3">
         <v>0</v>
@@ -2828,19 +2829,19 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>15523</v>
+        <v>14671</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -2852,16 +2853,16 @@
         <v>47</v>
       </c>
       <c r="N24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="3">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2882,7 +2883,7 @@
         <v>49</v>
       </c>
       <c r="AC24" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD24" t="s">
         <v>42</v>
@@ -2891,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="AG24">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH24" s="3">
         <v>0</v>
@@ -2923,19 +2924,19 @@
         <v>42</v>
       </c>
       <c r="F25">
-        <v>15523</v>
+        <v>14671</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
         <v>46</v>
@@ -2947,16 +2948,16 @@
         <v>47</v>
       </c>
       <c r="N25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R25" s="3">
         <v>0</v>
@@ -2977,7 +2978,7 @@
         <v>49</v>
       </c>
       <c r="AC25" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD25" t="s">
         <v>42</v>
@@ -2986,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="AG25">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH25" s="3">
         <v>0</v>
@@ -3018,19 +3019,19 @@
         <v>42</v>
       </c>
       <c r="F26">
-        <v>15973</v>
+        <v>14671</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -3042,16 +3043,16 @@
         <v>47</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="3">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -3072,7 +3073,7 @@
         <v>49</v>
       </c>
       <c r="AC26" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD26" t="s">
         <v>42</v>
@@ -3081,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="AG26">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH26" s="3">
         <v>0</v>
@@ -3113,16 +3114,16 @@
         <v>42</v>
       </c>
       <c r="F27">
-        <v>15973</v>
+        <v>15023</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>45</v>
@@ -3137,16 +3138,16 @@
         <v>47</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -3167,7 +3168,7 @@
         <v>49</v>
       </c>
       <c r="AC27" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD27" t="s">
         <v>42</v>
@@ -3176,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AG27">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH27" s="3">
         <v>0</v>
@@ -3208,16 +3209,16 @@
         <v>42</v>
       </c>
       <c r="F28">
-        <v>15974</v>
+        <v>15023</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>45</v>
@@ -3232,16 +3233,16 @@
         <v>47</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R28" s="3">
         <v>0</v>
@@ -3262,7 +3263,7 @@
         <v>49</v>
       </c>
       <c r="AC28" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD28" t="s">
         <v>42</v>
@@ -3271,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="AG28">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
@@ -3303,16 +3304,16 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>15974</v>
+        <v>15023</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>45</v>
@@ -3327,13 +3328,13 @@
         <v>47</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="3">
         <v>8</v>
@@ -3357,7 +3358,7 @@
         <v>49</v>
       </c>
       <c r="AC29" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD29" t="s">
         <v>42</v>
@@ -3366,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="AG29">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
@@ -3398,19 +3399,19 @@
         <v>42</v>
       </c>
       <c r="F30">
-        <v>15974</v>
+        <v>15023</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
@@ -3422,16 +3423,16 @@
         <v>47</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="3">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="R30" s="3">
         <v>0</v>
@@ -3452,7 +3453,7 @@
         <v>49</v>
       </c>
       <c r="AC30" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD30" t="s">
         <v>42</v>
@@ -3461,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="AG30">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH30" s="3">
         <v>0</v>
@@ -3493,16 +3494,16 @@
         <v>42</v>
       </c>
       <c r="F31">
-        <v>16227</v>
+        <v>15042</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>45</v>
@@ -3517,16 +3518,16 @@
         <v>47</v>
       </c>
       <c r="N31">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="3">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="R31" s="3">
         <v>0</v>
@@ -3547,7 +3548,7 @@
         <v>49</v>
       </c>
       <c r="AC31" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD31" t="s">
         <v>42</v>
@@ -3556,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -3588,16 +3589,16 @@
         <v>42</v>
       </c>
       <c r="F32">
-        <v>16227</v>
+        <v>15042</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>45</v>
@@ -3612,16 +3613,16 @@
         <v>47</v>
       </c>
       <c r="N32">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O32">
         <v>2</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -3642,7 +3643,7 @@
         <v>49</v>
       </c>
       <c r="AC32" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD32" t="s">
         <v>42</v>
@@ -3651,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH32" s="3">
         <v>0</v>
@@ -3683,16 +3684,16 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>16422</v>
+        <v>15042</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>45</v>
@@ -3707,13 +3708,13 @@
         <v>47</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="3">
         <v>9</v>
@@ -3737,7 +3738,7 @@
         <v>49</v>
       </c>
       <c r="AC33" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD33" t="s">
         <v>42</v>
@@ -3746,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="AG33">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -3778,16 +3779,16 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>16422</v>
+        <v>15042</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>45</v>
@@ -3802,16 +3803,16 @@
         <v>47</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R34" s="3">
         <v>0</v>
@@ -3832,7 +3833,7 @@
         <v>49</v>
       </c>
       <c r="AC34" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD34" t="s">
         <v>42</v>
@@ -3841,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="AG34">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -3873,16 +3874,16 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>16422</v>
+        <v>15042</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>45</v>
@@ -3897,16 +3898,16 @@
         <v>47</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -3927,7 +3928,7 @@
         <v>49</v>
       </c>
       <c r="AC35" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD35" t="s">
         <v>42</v>
@@ -3936,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -3968,16 +3969,16 @@
         <v>42</v>
       </c>
       <c r="F36">
-        <v>16583</v>
+        <v>15089</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>45</v>
@@ -3992,16 +3993,16 @@
         <v>47</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="3">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -4022,7 +4023,7 @@
         <v>49</v>
       </c>
       <c r="AC36" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD36" t="s">
         <v>42</v>
@@ -4031,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="AG36">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -4063,19 +4064,19 @@
         <v>42</v>
       </c>
       <c r="F37">
-        <v>16970</v>
+        <v>15089</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
         <v>46</v>
@@ -4090,13 +4091,13 @@
         <v>150</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q37" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R37" s="3">
         <v>0</v>
@@ -4117,7 +4118,7 @@
         <v>49</v>
       </c>
       <c r="AC37" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD37" t="s">
         <v>42</v>
@@ -4126,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -4158,19 +4159,19 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <v>16970</v>
+        <v>15089</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
         <v>46</v>
@@ -4185,13 +4186,13 @@
         <v>150</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -4212,7 +4213,7 @@
         <v>49</v>
       </c>
       <c r="AC38" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD38" t="s">
         <v>42</v>
@@ -4221,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="AG38">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -4253,19 +4254,19 @@
         <v>42</v>
       </c>
       <c r="F39">
-        <v>16970</v>
+        <v>15089</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
         <v>46</v>
@@ -4280,13 +4281,13 @@
         <v>150</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="3">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="R39" s="3">
         <v>0</v>
@@ -4307,7 +4308,7 @@
         <v>49</v>
       </c>
       <c r="AC39" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD39" t="s">
         <v>42</v>
@@ -4316,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -4348,19 +4349,19 @@
         <v>42</v>
       </c>
       <c r="F40">
-        <v>16970</v>
+        <v>15523</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
         <v>46</v>
@@ -4372,16 +4373,16 @@
         <v>47</v>
       </c>
       <c r="N40">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q40" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -4402,7 +4403,7 @@
         <v>49</v>
       </c>
       <c r="AC40" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD40" t="s">
         <v>42</v>
@@ -4411,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="AG40">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -4443,19 +4444,19 @@
         <v>42</v>
       </c>
       <c r="F41">
-        <v>16970</v>
+        <v>15523</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -4467,16 +4468,16 @@
         <v>47</v>
       </c>
       <c r="N41">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q41" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -4497,7 +4498,7 @@
         <v>49</v>
       </c>
       <c r="AC41" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD41" t="s">
         <v>42</v>
@@ -4506,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="AG41">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -4538,19 +4539,19 @@
         <v>42</v>
       </c>
       <c r="F42">
-        <v>16970</v>
+        <v>15973</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
         <v>46</v>
@@ -4562,16 +4563,16 @@
         <v>47</v>
       </c>
       <c r="N42">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q42" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -4592,7 +4593,7 @@
         <v>49</v>
       </c>
       <c r="AC42" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD42" t="s">
         <v>42</v>
@@ -4601,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="AG42">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH42" s="3">
         <v>0</v>
@@ -4633,19 +4634,19 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <v>17029</v>
+        <v>15973</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
         <v>46</v>
@@ -4657,16 +4658,16 @@
         <v>47</v>
       </c>
       <c r="N43">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q43" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -4687,7 +4688,7 @@
         <v>49</v>
       </c>
       <c r="AC43" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD43" t="s">
         <v>42</v>
@@ -4696,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="AG43">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -4728,19 +4729,19 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>17029</v>
+        <v>15973</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
         <v>46</v>
@@ -4752,16 +4753,16 @@
         <v>47</v>
       </c>
       <c r="N44">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q44" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -4782,7 +4783,7 @@
         <v>49</v>
       </c>
       <c r="AC44" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD44" t="s">
         <v>42</v>
@@ -4791,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="AG44">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -4823,19 +4824,19 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <v>17029</v>
+        <v>15973</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
@@ -4847,16 +4848,16 @@
         <v>47</v>
       </c>
       <c r="N45">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="3">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -4877,7 +4878,7 @@
         <v>49</v>
       </c>
       <c r="AC45" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD45" t="s">
         <v>42</v>
@@ -4886,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="AG45">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -4918,19 +4919,19 @@
         <v>42</v>
       </c>
       <c r="F46">
-        <v>17159</v>
+        <v>15973</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
         <v>46</v>
@@ -4942,16 +4943,16 @@
         <v>47</v>
       </c>
       <c r="N46">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q46" s="3">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -4972,7 +4973,7 @@
         <v>49</v>
       </c>
       <c r="AC46" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD46" t="s">
         <v>42</v>
@@ -4981,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="AG46">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -5013,19 +5014,19 @@
         <v>42</v>
       </c>
       <c r="F47">
-        <v>17159</v>
+        <v>15974</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
         <v>46</v>
@@ -5037,16 +5038,16 @@
         <v>47</v>
       </c>
       <c r="N47">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q47" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -5067,7 +5068,7 @@
         <v>49</v>
       </c>
       <c r="AC47" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD47" t="s">
         <v>42</v>
@@ -5076,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="AG47">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -5108,19 +5109,19 @@
         <v>42</v>
       </c>
       <c r="F48">
-        <v>17163</v>
+        <v>15974</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s">
         <v>46</v>
@@ -5135,13 +5136,13 @@
         <v>100</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q48" s="3">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -5162,7 +5163,7 @@
         <v>49</v>
       </c>
       <c r="AC48" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD48" t="s">
         <v>42</v>
@@ -5171,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="AG48">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH48" s="3">
         <v>0</v>
@@ -5203,19 +5204,19 @@
         <v>42</v>
       </c>
       <c r="F49">
-        <v>17163</v>
+        <v>15974</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
         <v>46</v>
@@ -5233,10 +5234,10 @@
         <v>3</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q49" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -5257,7 +5258,7 @@
         <v>49</v>
       </c>
       <c r="AC49" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD49" t="s">
         <v>42</v>
@@ -5266,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH49" s="3">
         <v>0</v>
@@ -5298,19 +5299,19 @@
         <v>42</v>
       </c>
       <c r="F50">
-        <v>17413</v>
+        <v>15974</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
@@ -5322,16 +5323,16 @@
         <v>47</v>
       </c>
       <c r="N50">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q50" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R50" s="3">
         <v>0</v>
@@ -5352,7 +5353,7 @@
         <v>49</v>
       </c>
       <c r="AC50" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD50" t="s">
         <v>42</v>
@@ -5361,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="AG50">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -5393,19 +5394,19 @@
         <v>42</v>
       </c>
       <c r="F51">
-        <v>17413</v>
+        <v>16422</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
         <v>46</v>
@@ -5417,16 +5418,16 @@
         <v>47</v>
       </c>
       <c r="N51">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R51" s="3">
         <v>0</v>
@@ -5447,7 +5448,7 @@
         <v>49</v>
       </c>
       <c r="AC51" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD51" t="s">
         <v>42</v>
@@ -5456,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="AG51">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -5488,19 +5489,19 @@
         <v>42</v>
       </c>
       <c r="F52">
-        <v>17413</v>
+        <v>16422</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
         <v>46</v>
@@ -5512,16 +5513,16 @@
         <v>47</v>
       </c>
       <c r="N52">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -5542,7 +5543,7 @@
         <v>49</v>
       </c>
       <c r="AC52" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD52" t="s">
         <v>42</v>
@@ -5551,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="AG52">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -5583,19 +5584,19 @@
         <v>42</v>
       </c>
       <c r="F53">
-        <v>17461</v>
+        <v>16422</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
         <v>46</v>
@@ -5607,13 +5608,13 @@
         <v>47</v>
       </c>
       <c r="N53">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q53" s="3">
         <v>8</v>
@@ -5637,7 +5638,7 @@
         <v>49</v>
       </c>
       <c r="AC53" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD53" t="s">
         <v>42</v>
@@ -5646,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="AG53">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -5678,19 +5679,19 @@
         <v>42</v>
       </c>
       <c r="F54">
-        <v>17461</v>
+        <v>16422</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
         <v>46</v>
@@ -5702,16 +5703,16 @@
         <v>47</v>
       </c>
       <c r="N54">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q54" s="3">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -5732,7 +5733,7 @@
         <v>49</v>
       </c>
       <c r="AC54" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD54" t="s">
         <v>42</v>
@@ -5741,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="AG54">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH54" s="3">
         <v>0</v>
@@ -5773,16 +5774,16 @@
         <v>42</v>
       </c>
       <c r="F55">
-        <v>17475</v>
+        <v>16422</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>45</v>
@@ -5797,16 +5798,16 @@
         <v>47</v>
       </c>
       <c r="N55">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q55" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R55" s="3">
         <v>0</v>
@@ -5827,7 +5828,7 @@
         <v>49</v>
       </c>
       <c r="AC55" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD55" t="s">
         <v>42</v>
@@ -5836,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="AG55">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH55" s="3">
         <v>0</v>
@@ -5868,10 +5869,10 @@
         <v>42</v>
       </c>
       <c r="F56">
-        <v>17546</v>
+        <v>16970</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>43</v>
@@ -5880,7 +5881,7 @@
         <v>51</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -5901,7 +5902,7 @@
         <v>64</v>
       </c>
       <c r="Q56" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R56" s="3">
         <v>0</v>
@@ -5922,7 +5923,7 @@
         <v>49</v>
       </c>
       <c r="AC56" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD56" t="s">
         <v>42</v>
@@ -5931,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="AG56">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH56" s="3">
         <v>0</v>
@@ -5963,16 +5964,16 @@
         <v>42</v>
       </c>
       <c r="F57">
-        <v>17546</v>
+        <v>16970</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>63</v>
@@ -5990,13 +5991,13 @@
         <v>150</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q57" s="3">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -6017,7 +6018,7 @@
         <v>49</v>
       </c>
       <c r="AC57" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD57" t="s">
         <v>42</v>
@@ -6026,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="AG57">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH57" s="3">
         <v>0</v>
@@ -6058,16 +6059,16 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>17546</v>
+        <v>16970</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>63</v>
@@ -6091,7 +6092,7 @@
         <v>64</v>
       </c>
       <c r="Q58" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -6112,7 +6113,7 @@
         <v>49</v>
       </c>
       <c r="AC58" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD58" t="s">
         <v>42</v>
@@ -6121,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AG58">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH58" s="3">
         <v>0</v>
@@ -6153,19 +6154,19 @@
         <v>42</v>
       </c>
       <c r="F59">
-        <v>17639</v>
+        <v>16970</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K59" t="s">
         <v>46</v>
@@ -6180,13 +6181,13 @@
         <v>150</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q59" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -6207,7 +6208,7 @@
         <v>49</v>
       </c>
       <c r="AC59" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD59" t="s">
         <v>42</v>
@@ -6216,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="AG59">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH59" s="3">
         <v>0</v>
@@ -6248,19 +6249,19 @@
         <v>42</v>
       </c>
       <c r="F60">
-        <v>17677</v>
+        <v>16970</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K60" t="s">
         <v>46</v>
@@ -6275,13 +6276,13 @@
         <v>150</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q60" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -6302,7 +6303,7 @@
         <v>49</v>
       </c>
       <c r="AC60" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD60" t="s">
         <v>42</v>
@@ -6311,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="AG60">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH60" s="3">
         <v>0</v>
@@ -6343,19 +6344,19 @@
         <v>42</v>
       </c>
       <c r="F61">
-        <v>17677</v>
+        <v>17029</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s">
         <v>46</v>
@@ -6370,13 +6371,13 @@
         <v>150</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Q61" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -6397,7 +6398,7 @@
         <v>49</v>
       </c>
       <c r="AC61" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD61" t="s">
         <v>42</v>
@@ -6406,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="AG61">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH61" s="3">
         <v>0</v>
@@ -6438,13 +6439,13 @@
         <v>42</v>
       </c>
       <c r="F62">
-        <v>17750</v>
+        <v>17029</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>51</v>
@@ -6465,13 +6466,13 @@
         <v>150</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q62" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -6492,7 +6493,7 @@
         <v>49</v>
       </c>
       <c r="AC62" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD62" t="s">
         <v>42</v>
@@ -6501,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AG62">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH62" s="3">
         <v>0</v>
@@ -6533,13 +6534,13 @@
         <v>42</v>
       </c>
       <c r="F63">
-        <v>17750</v>
+        <v>17029</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>51</v>
@@ -6560,13 +6561,13 @@
         <v>150</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q63" s="3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="R63" s="3">
         <v>0</v>
@@ -6587,7 +6588,7 @@
         <v>49</v>
       </c>
       <c r="AC63" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD63" t="s">
         <v>42</v>
@@ -6596,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH63" s="3">
         <v>0</v>
@@ -6628,16 +6629,16 @@
         <v>42</v>
       </c>
       <c r="F64">
-        <v>17750</v>
+        <v>17029</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>45</v>
@@ -6655,13 +6656,13 @@
         <v>150</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q64" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="R64" s="3">
         <v>0</v>
@@ -6682,7 +6683,7 @@
         <v>49</v>
       </c>
       <c r="AC64" s="4">
-        <v>44556</v>
+        <v>44598</v>
       </c>
       <c r="AD64" t="s">
         <v>42</v>
@@ -6691,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AG64">
-        <v>50899</v>
+        <v>20899</v>
       </c>
       <c r="AH64" s="3">
         <v>0</v>
@@ -6703,6 +6704,2001 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>17159</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65">
+        <v>150</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>9</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AG65">
+        <v>20899</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>17159</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66">
+        <v>150</v>
+      </c>
+      <c r="O66">
+        <v>3</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>20899</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67">
+        <v>17159</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67">
+        <v>150</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
+        <v>20899</v>
+      </c>
+      <c r="AH67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68">
+        <v>17159</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68">
+        <v>150</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>8</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>20899</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69">
+        <v>17461</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69">
+        <v>150</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>20899</v>
+      </c>
+      <c r="AH69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70">
+        <v>17461</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70">
+        <v>150</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>3</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>20899</v>
+      </c>
+      <c r="AH70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>17461</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71">
+        <v>150</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>9</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>20899</v>
+      </c>
+      <c r="AH71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72">
+        <v>17461</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72">
+        <v>150</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
+      </c>
+      <c r="AG72">
+        <v>20899</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73">
+        <v>17461</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K73" t="s">
+        <v>46</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73">
+        <v>150</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>8</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
+        <v>20899</v>
+      </c>
+      <c r="AH73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74">
+        <v>17512</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>9</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
+      </c>
+      <c r="AG74">
+        <v>20899</v>
+      </c>
+      <c r="AH74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75">
+        <v>17512</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75">
+        <v>100</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>9</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>20899</v>
+      </c>
+      <c r="AH75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76">
+        <v>17512</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K76" t="s">
+        <v>46</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76">
+        <v>100</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>9</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+      <c r="AG76">
+        <v>20899</v>
+      </c>
+      <c r="AH76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77">
+        <v>17512</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K77" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>10</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
+      </c>
+      <c r="AG77">
+        <v>20899</v>
+      </c>
+      <c r="AH77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78">
+        <v>17512</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>9</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AG78">
+        <v>20899</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79">
+        <v>17546</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79" t="s">
+        <v>46</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79">
+        <v>150</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>8</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AG79">
+        <v>20899</v>
+      </c>
+      <c r="AH79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80">
+        <v>17546</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K80" t="s">
+        <v>46</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80">
+        <v>150</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>8</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>20899</v>
+      </c>
+      <c r="AH80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81">
+        <v>17546</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81">
+        <v>150</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>81</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>20899</v>
+      </c>
+      <c r="AH81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82">
+        <v>17546</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K82" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82">
+        <v>150</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>8</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>20899</v>
+      </c>
+      <c r="AH82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83">
+        <v>17546</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" t="s">
+        <v>46</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83">
+        <v>150</v>
+      </c>
+      <c r="O83">
+        <v>5</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>11</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
+      </c>
+      <c r="AG83">
+        <v>20899</v>
+      </c>
+      <c r="AH83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84">
+        <v>17639</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84">
+        <v>150</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>9</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>81</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
+        <v>20899</v>
+      </c>
+      <c r="AH84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85">
+        <v>17685</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85">
+        <v>100</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>8</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>44598</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
+      </c>
+      <c r="AG85">
+        <v>20899</v>
+      </c>
+      <c r="AH85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="s">
         <v>50</v>
       </c>
     </row>
